--- a/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
+++ b/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMJ\Desktop\new\KSA-final-project\03-요구사항명세서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMJ\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1E581-D77D-4ECC-86EF-3347CE958EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3D895-7EB2-437B-AA65-B4B80CC66CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -600,11 +600,6 @@
   </si>
   <si>
     <t>OAuth 회원가입</t>
-  </si>
-  <si>
-    <t>중요도
- (1 - 5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>흡연 카운트할 때마다 동기부여 이미지 팝업</t>
@@ -2427,6 +2422,11 @@
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>우선순위
+ (1 - 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2837,7 +2837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2961,9 +2961,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3065,88 +3062,84 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3161,40 +3154,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3202,32 +3163,23 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3235,8 +3187,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3457,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3479,154 +3491,154 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="99"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="103"/>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="83"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="105"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="80"/>
+      <c r="G4" s="131"/>
       <c r="H4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="81"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="99"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F5" s="94" t="s">
+      <c r="E5" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="97" t="s">
+      <c r="G5" s="125"/>
+      <c r="H5" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="82" t="s">
+      <c r="J5" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="82" t="s">
+      <c r="K5" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="82" t="s">
+      <c r="L5" s="122" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="83"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="138">
         <v>1</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="120"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="83"/>
+      <c r="K7" s="83" t="s">
         <v>123</v>
       </c>
       <c r="L7" s="3"/>
@@ -3662,7 +3674,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="93"/>
-      <c r="G8" s="81"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
         <v>120</v>
@@ -3691,28 +3703,28 @@
       <c r="A9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="83">
         <v>1</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="120"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="83"/>
+      <c r="K9" s="83" t="s">
         <v>124</v>
       </c>
       <c r="L9" s="3"/>
@@ -3748,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="93"/>
-      <c r="G10" s="81"/>
+      <c r="G10" s="99"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
         <v>120</v>
@@ -3783,14 +3795,14 @@
       <c r="C11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>190</v>
+      <c r="D11" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="93"/>
-      <c r="G11" s="81"/>
+      <c r="G11" s="99"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
         <v>120</v>
@@ -3825,14 +3837,14 @@
       <c r="C12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>193</v>
+      <c r="D12" s="51" t="s">
+        <v>192</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="98"/>
-      <c r="G12" s="81"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="99"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
         <v>120</v>
@@ -3874,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="93"/>
-      <c r="G13" s="81"/>
+      <c r="G13" s="99"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
         <v>120</v>
@@ -3909,14 +3921,14 @@
       <c r="C14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>228</v>
+      <c r="D14" s="51" t="s">
+        <v>227</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="81"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="99"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
         <v>120</v>
@@ -3945,20 +3957,20 @@
       <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C15" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>229</v>
+      <c r="D15" s="75" t="s">
+        <v>228</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="117"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3983,20 +3995,20 @@
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="58" t="s">
-        <v>198</v>
-      </c>
       <c r="E16" s="3">
-        <v>2</v>
-      </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="117"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="121"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="5"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -4021,8 +4033,8 @@
       <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>194</v>
+      <c r="B17" s="53" t="s">
+        <v>193</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>111</v>
@@ -4033,8 +4045,8 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="101"/>
-      <c r="G17" s="81"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="10"/>
       <c r="I17" s="3" t="s">
         <v>120</v>
@@ -4075,8 +4087,8 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="81"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="99"/>
       <c r="H18" s="5"/>
       <c r="I18" s="3" t="s">
         <v>120</v>
@@ -4111,14 +4123,14 @@
       <c r="C19" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="59" t="s">
-        <v>200</v>
+      <c r="D19" s="58" t="s">
+        <v>199</v>
       </c>
       <c r="E19" s="24">
         <v>2</v>
       </c>
-      <c r="F19" s="101"/>
-      <c r="G19" s="81"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="10"/>
       <c r="I19" s="3" t="s">
         <v>120</v>
@@ -4143,73 +4155,73 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" s="75" customFormat="1" ht="12.75">
+    <row r="20" spans="1:26" s="74" customFormat="1" ht="12.75">
       <c r="A20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="123">
+      <c r="E20" s="81">
         <v>5</v>
       </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="137" t="s">
-        <v>235</v>
-      </c>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127" t="s">
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="74"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="74"/>
-      <c r="X20" s="74"/>
-      <c r="Y20" s="74"/>
-      <c r="Z20" s="74"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="123">
+      <c r="D21" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="81">
         <v>5</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="137" t="s">
-        <v>235</v>
-      </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127" t="s">
-        <v>235</v>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83" t="s">
+        <v>234</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="6"/>
@@ -4231,20 +4243,20 @@
       <c r="A22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>191</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>192</v>
       </c>
       <c r="E22" s="24">
         <v>1</v>
       </c>
-      <c r="F22" s="119"/>
-      <c r="G22" s="81"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="99"/>
       <c r="H22" s="10"/>
       <c r="I22" s="3" t="s">
         <v>120</v>
@@ -4276,8 +4288,8 @@
       <c r="B23" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>201</v>
+      <c r="C23" s="60" t="s">
+        <v>200</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>48</v>
@@ -4285,8 +4297,8 @@
       <c r="E23" s="24">
         <v>2</v>
       </c>
-      <c r="F23" s="101"/>
-      <c r="G23" s="81"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3" t="s">
         <v>120</v>
@@ -4315,20 +4327,20 @@
       <c r="A24" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="57" t="s">
         <v>202</v>
-      </c>
-      <c r="C24" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="58" t="s">
-        <v>203</v>
       </c>
       <c r="E24" s="24">
         <v>2</v>
       </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="117"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="10"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4359,14 +4371,14 @@
       <c r="C25" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>204</v>
+      <c r="D25" s="51" t="s">
+        <v>203</v>
       </c>
       <c r="E25" s="24">
         <v>2</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="81"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="99"/>
       <c r="H25" s="10"/>
       <c r="I25" s="3" t="s">
         <v>120</v>
@@ -4407,8 +4419,8 @@
       <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="81"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>120</v>
@@ -4437,20 +4449,20 @@
       <c r="A27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="58" t="s">
-        <v>226</v>
+      <c r="B27" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>225</v>
       </c>
       <c r="E27" s="24">
         <v>2</v>
       </c>
-      <c r="F27" s="111"/>
-      <c r="G27" s="114"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="95"/>
       <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -4475,20 +4487,20 @@
       <c r="A28" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="72" t="s">
-        <v>227</v>
+      <c r="B28" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>226</v>
       </c>
       <c r="E28" s="24">
         <v>2</v>
       </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="114"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
       <c r="H28" s="10"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4513,27 +4525,27 @@
       <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="133" t="s">
+      <c r="C29" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="134" t="s">
+      <c r="D29" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="123">
+      <c r="E29" s="81">
         <v>5</v>
       </c>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="137" t="s">
-        <v>235</v>
-      </c>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127" t="s">
-        <v>235</v>
+      <c r="F29" s="119"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83" t="s">
+        <v>234</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="6"/>
@@ -4561,14 +4573,14 @@
       <c r="C30" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>207</v>
+      <c r="D30" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="E30" s="24">
-        <v>2</v>
-      </c>
-      <c r="F30" s="100"/>
-      <c r="G30" s="81"/>
+        <v>3</v>
+      </c>
+      <c r="F30" s="96"/>
+      <c r="G30" s="99"/>
       <c r="H30" s="10"/>
       <c r="I30" s="3" t="s">
         <v>120</v>
@@ -4607,10 +4619,10 @@
         <v>51</v>
       </c>
       <c r="E31" s="24">
-        <v>2</v>
-      </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="86"/>
+        <v>3</v>
+      </c>
+      <c r="F31" s="96"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="10"/>
       <c r="I31" s="3" t="s">
         <v>120</v>
@@ -4649,11 +4661,11 @@
         <v>147</v>
       </c>
       <c r="E32" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="104"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="44"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="3" t="s">
         <v>142</v>
       </c>
@@ -4691,10 +4703,10 @@
         <v>52</v>
       </c>
       <c r="E33" s="24">
-        <v>2</v>
-      </c>
-      <c r="F33" s="105"/>
-      <c r="G33" s="89"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="102"/>
+      <c r="G33" s="105"/>
       <c r="H33" s="7"/>
       <c r="I33" s="3" t="s">
         <v>120</v>
@@ -4723,20 +4735,20 @@
       <c r="A34" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="66" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="77" t="s">
+      <c r="B34" s="65" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="D34" s="72" t="s">
-        <v>231</v>
-      </c>
       <c r="E34" s="24">
-        <v>2</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
       <c r="H34" s="7"/>
       <c r="I34" s="3"/>
       <c r="J34" s="9"/>
@@ -4759,28 +4771,28 @@
     </row>
     <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="B35" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>211</v>
-      </c>
       <c r="E35" s="24">
-        <v>2</v>
-      </c>
-      <c r="F35" s="111"/>
-      <c r="G35" s="114"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="94"/>
+      <c r="G35" s="95"/>
       <c r="H35" s="10"/>
       <c r="I35" s="3"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -4804,17 +4816,17 @@
       <c r="B36" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>208</v>
+      <c r="C36" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="E36" s="24">
-        <v>2</v>
-      </c>
-      <c r="F36" s="106"/>
-      <c r="G36" s="81"/>
+        <v>3</v>
+      </c>
+      <c r="F36" s="100"/>
+      <c r="G36" s="99"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
         <v>120</v>
@@ -4843,28 +4855,28 @@
       <c r="A37" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="108"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50" t="s">
+      <c r="E37" s="47"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51" t="s">
+      <c r="J37" s="50"/>
+      <c r="K37" s="50" t="s">
         <v>153</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -4891,14 +4903,14 @@
       <c r="C38" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="69" t="s">
-        <v>214</v>
+      <c r="D38" s="68" t="s">
+        <v>213</v>
       </c>
       <c r="E38" s="24">
-        <v>3</v>
-      </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F38" s="96"/>
+      <c r="G38" s="99"/>
       <c r="H38" s="10"/>
       <c r="I38" s="3" t="s">
         <v>120</v>
@@ -4933,14 +4945,14 @@
       <c r="C39" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>213</v>
+      <c r="D39" s="51" t="s">
+        <v>212</v>
       </c>
       <c r="E39" s="25">
-        <v>3</v>
-      </c>
-      <c r="F39" s="106"/>
-      <c r="G39" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F39" s="100"/>
+      <c r="G39" s="99"/>
       <c r="H39" s="10"/>
       <c r="I39" s="3" t="s">
         <v>120</v>
@@ -4975,15 +4987,15 @@
       <c r="C40" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="70" t="s">
-        <v>212</v>
+      <c r="D40" s="69" t="s">
+        <v>211</v>
       </c>
       <c r="E40" s="25">
-        <v>3</v>
-      </c>
-      <c r="F40" s="106"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="67"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="100"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="3" t="s">
         <v>120</v>
       </c>
@@ -5021,10 +5033,10 @@
         <v>55</v>
       </c>
       <c r="E41" s="25">
-        <v>3</v>
-      </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F41" s="102"/>
+      <c r="G41" s="99"/>
       <c r="H41" s="10"/>
       <c r="I41" s="3" t="s">
         <v>120</v>
@@ -5051,7 +5063,7 @@
     </row>
     <row r="42" spans="1:26" ht="12.75">
       <c r="A42" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>84</v>
@@ -5063,10 +5075,10 @@
         <v>56</v>
       </c>
       <c r="E42" s="25">
-        <v>3</v>
-      </c>
-      <c r="F42" s="100"/>
-      <c r="G42" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="96"/>
+      <c r="G42" s="99"/>
       <c r="H42" s="10"/>
       <c r="I42" s="3" t="s">
         <v>120</v>
@@ -5093,7 +5105,7 @@
     </row>
     <row r="43" spans="1:26" ht="12.75">
       <c r="A43" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>91</v>
@@ -5105,10 +5117,10 @@
         <v>184</v>
       </c>
       <c r="E43" s="25">
-        <v>3</v>
-      </c>
-      <c r="F43" s="111"/>
-      <c r="G43" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="94"/>
+      <c r="G43" s="101"/>
       <c r="H43" s="10"/>
       <c r="I43" s="3" t="s">
         <v>148</v>
@@ -5137,20 +5149,20 @@
     </row>
     <row r="44" spans="1:26" ht="21">
       <c r="A44" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="71" t="s">
-        <v>216</v>
-      </c>
       <c r="E44" s="25">
-        <v>3</v>
-      </c>
-      <c r="F44" s="111"/>
-      <c r="G44" s="114"/>
+        <v>4</v>
+      </c>
+      <c r="F44" s="94"/>
+      <c r="G44" s="95"/>
       <c r="H44" s="10"/>
       <c r="I44" s="3"/>
       <c r="J44" s="9"/>
@@ -5173,7 +5185,7 @@
     </row>
     <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>160</v>
@@ -5185,10 +5197,10 @@
         <v>160</v>
       </c>
       <c r="E45" s="25">
-        <v>3</v>
-      </c>
-      <c r="F45" s="100"/>
-      <c r="G45" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F45" s="96"/>
+      <c r="G45" s="99"/>
       <c r="H45" s="10"/>
       <c r="I45" s="3" t="s">
         <v>120</v>
@@ -5215,7 +5227,7 @@
     </row>
     <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B46" s="30" t="s">
         <v>161</v>
@@ -5227,10 +5239,10 @@
         <v>161</v>
       </c>
       <c r="E46" s="25">
-        <v>3</v>
-      </c>
-      <c r="F46" s="111"/>
-      <c r="G46" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="94"/>
+      <c r="G46" s="101"/>
       <c r="H46" s="10"/>
       <c r="I46" s="3" t="s">
         <v>148</v>
@@ -5257,7 +5269,7 @@
     </row>
     <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B47" s="30" t="s">
         <v>162</v>
@@ -5269,10 +5281,10 @@
         <v>162</v>
       </c>
       <c r="E47" s="25">
-        <v>3</v>
-      </c>
-      <c r="F47" s="111"/>
-      <c r="G47" s="103"/>
+        <v>4</v>
+      </c>
+      <c r="F47" s="94"/>
+      <c r="G47" s="101"/>
       <c r="H47" s="10"/>
       <c r="I47" s="3" t="s">
         <v>148</v>
@@ -5299,7 +5311,7 @@
     </row>
     <row r="48" spans="1:26" ht="12.75">
       <c r="A48" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B48" s="30" t="s">
         <v>76</v>
@@ -5311,10 +5323,10 @@
         <v>57</v>
       </c>
       <c r="E48" s="24">
-        <v>3</v>
-      </c>
-      <c r="F48" s="100"/>
-      <c r="G48" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F48" s="96"/>
+      <c r="G48" s="99"/>
       <c r="H48" s="10"/>
       <c r="I48" s="3" t="s">
         <v>142</v>
@@ -5341,7 +5353,7 @@
     </row>
     <row r="49" spans="1:26" ht="12.75">
       <c r="A49" s="21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>85</v>
@@ -5353,10 +5365,10 @@
         <v>58</v>
       </c>
       <c r="E49" s="24">
-        <v>3</v>
-      </c>
-      <c r="F49" s="100"/>
-      <c r="G49" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="96"/>
+      <c r="G49" s="99"/>
       <c r="H49" s="10"/>
       <c r="I49" s="3" t="s">
         <v>120</v>
@@ -5395,10 +5407,10 @@
         <v>59</v>
       </c>
       <c r="E50" s="24">
-        <v>3</v>
-      </c>
-      <c r="F50" s="100"/>
-      <c r="G50" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="96"/>
+      <c r="G50" s="99"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9" t="s">
         <v>119</v>
@@ -5437,10 +5449,10 @@
         <v>127</v>
       </c>
       <c r="E51" s="24">
-        <v>1</v>
-      </c>
-      <c r="F51" s="111"/>
-      <c r="G51" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="F51" s="94"/>
+      <c r="G51" s="101"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9" t="s">
         <v>119</v>
@@ -5479,10 +5491,10 @@
         <v>128</v>
       </c>
       <c r="E52" s="24">
-        <v>1</v>
-      </c>
-      <c r="F52" s="111"/>
-      <c r="G52" s="103"/>
+        <v>5</v>
+      </c>
+      <c r="F52" s="94"/>
+      <c r="G52" s="101"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9" t="s">
         <v>119</v>
@@ -5521,10 +5533,10 @@
         <v>60</v>
       </c>
       <c r="E53" s="24">
-        <v>1</v>
-      </c>
-      <c r="F53" s="100"/>
-      <c r="G53" s="81"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="96"/>
+      <c r="G53" s="99"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9" t="s">
         <v>119</v>
@@ -5563,10 +5575,10 @@
         <v>51</v>
       </c>
       <c r="E54" s="24">
-        <v>1</v>
-      </c>
-      <c r="F54" s="100"/>
-      <c r="G54" s="81"/>
+        <v>2</v>
+      </c>
+      <c r="F54" s="96"/>
+      <c r="G54" s="99"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9" t="s">
         <v>119</v>
@@ -5605,10 +5617,10 @@
         <v>61</v>
       </c>
       <c r="E55" s="42">
-        <v>1</v>
-      </c>
-      <c r="F55" s="100"/>
-      <c r="G55" s="81"/>
+        <v>2</v>
+      </c>
+      <c r="F55" s="96"/>
+      <c r="G55" s="99"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
         <v>119</v>
@@ -5647,10 +5659,10 @@
         <v>62</v>
       </c>
       <c r="E56" s="42">
-        <v>1</v>
-      </c>
-      <c r="F56" s="100"/>
-      <c r="G56" s="81"/>
+        <v>2</v>
+      </c>
+      <c r="F56" s="96"/>
+      <c r="G56" s="99"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9" t="s">
         <v>119</v>
@@ -5689,10 +5701,10 @@
         <v>63</v>
       </c>
       <c r="E57" s="42">
-        <v>2</v>
-      </c>
-      <c r="F57" s="100"/>
-      <c r="G57" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F57" s="96"/>
+      <c r="G57" s="99"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9" t="s">
         <v>119</v>
@@ -5731,10 +5743,10 @@
         <v>54</v>
       </c>
       <c r="E58" s="42">
-        <v>2</v>
-      </c>
-      <c r="F58" s="100"/>
-      <c r="G58" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F58" s="96"/>
+      <c r="G58" s="99"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9" t="s">
         <v>119</v>
@@ -5773,10 +5785,10 @@
         <v>55</v>
       </c>
       <c r="E59" s="42">
-        <v>2</v>
-      </c>
-      <c r="F59" s="100"/>
-      <c r="G59" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="96"/>
+      <c r="G59" s="99"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9" t="s">
         <v>119</v>
@@ -5815,10 +5827,10 @@
         <v>64</v>
       </c>
       <c r="E60" s="25">
-        <v>2</v>
-      </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="96"/>
+      <c r="G60" s="99"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9" t="s">
         <v>119</v>
@@ -5857,10 +5869,10 @@
         <v>65</v>
       </c>
       <c r="E61" s="25">
-        <v>2</v>
-      </c>
-      <c r="F61" s="106"/>
-      <c r="G61" s="81"/>
+        <v>4</v>
+      </c>
+      <c r="F61" s="100"/>
+      <c r="G61" s="99"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9" t="s">
         <v>119</v>
@@ -5891,8 +5903,8 @@
       <c r="C62" s="11"/>
       <c r="D62" s="26"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="112"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="91"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -5919,8 +5931,8 @@
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="100"/>
-      <c r="G63" s="112"/>
+      <c r="F63" s="96"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="5"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -5947,8 +5959,8 @@
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="112"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="5"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -5975,8 +5987,8 @@
       <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="112"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="91"/>
       <c r="H65" s="5"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -6003,8 +6015,8 @@
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="112"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="91"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -6031,8 +6043,8 @@
       <c r="C67" s="11"/>
       <c r="D67" s="17"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="113"/>
-      <c r="G67" s="112"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91"/>
       <c r="H67" s="17"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -6059,8 +6071,8 @@
       <c r="C68" s="11"/>
       <c r="D68" s="17"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="113"/>
-      <c r="G68" s="112"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="91"/>
       <c r="H68" s="17"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
@@ -6087,8 +6099,8 @@
       <c r="C69" s="16"/>
       <c r="D69" s="18"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="112"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="18"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
@@ -6115,8 +6127,8 @@
       <c r="C70" s="16"/>
       <c r="D70" s="5"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="100"/>
-      <c r="G70" s="112"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="91"/>
       <c r="H70" s="5"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
@@ -6143,8 +6155,8 @@
       <c r="C71" s="16"/>
       <c r="D71" s="5"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="100"/>
-      <c r="G71" s="112"/>
+      <c r="F71" s="96"/>
+      <c r="G71" s="91"/>
       <c r="H71" s="5"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -6171,8 +6183,8 @@
       <c r="C72" s="16"/>
       <c r="D72" s="5"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="100"/>
-      <c r="G72" s="112"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="91"/>
       <c r="H72" s="5"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -6199,8 +6211,8 @@
       <c r="C73" s="16"/>
       <c r="D73" s="5"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="116"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="98"/>
       <c r="H73" s="5"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
@@ -6227,8 +6239,8 @@
       <c r="C74" s="16"/>
       <c r="D74" s="5"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="112"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="91"/>
       <c r="H74" s="5"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
@@ -6255,8 +6267,8 @@
       <c r="C75" s="11"/>
       <c r="D75" s="17"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="113"/>
-      <c r="G75" s="112"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="91"/>
       <c r="H75" s="17"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -6283,8 +6295,8 @@
       <c r="C76" s="11"/>
       <c r="D76" s="17"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="113"/>
-      <c r="G76" s="112"/>
+      <c r="F76" s="90"/>
+      <c r="G76" s="91"/>
       <c r="H76" s="17"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -6311,8 +6323,8 @@
       <c r="C77" s="11"/>
       <c r="D77" s="17"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="113"/>
-      <c r="G77" s="112"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="91"/>
       <c r="H77" s="17"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -6339,8 +6351,8 @@
       <c r="C78" s="11"/>
       <c r="D78" s="17"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="113"/>
-      <c r="G78" s="112"/>
+      <c r="F78" s="90"/>
+      <c r="G78" s="91"/>
       <c r="H78" s="17"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -6367,8 +6379,8 @@
       <c r="C79" s="11"/>
       <c r="D79" s="17"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="113"/>
-      <c r="G79" s="112"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="91"/>
       <c r="H79" s="17"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6395,8 +6407,8 @@
       <c r="C80" s="11"/>
       <c r="D80" s="17"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="113"/>
-      <c r="G80" s="112"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="91"/>
       <c r="H80" s="17"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -6423,8 +6435,8 @@
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="99"/>
-      <c r="G81" s="112"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="91"/>
       <c r="H81" s="5"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -6452,7 +6464,7 @@
       <c r="D82" s="4"/>
       <c r="E82" s="1"/>
       <c r="F82" s="93"/>
-      <c r="G82" s="112"/>
+      <c r="G82" s="91"/>
       <c r="H82" s="5"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -32907,6 +32919,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="F81:G81"/>
@@ -32923,83 +33012,6 @@
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
+++ b/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\KSA-final-project\03-요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3D895-7EB2-437B-AA65-B4B80CC66CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1677A52-AAD4-438A-B571-5DEF2445EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="241">
   <si>
     <t>R1</t>
   </si>
@@ -443,28 +441,13 @@
     <t>3.3.3, 4.1.6</t>
   </si>
   <si>
-    <t>3.5.2, 4.1.7</t>
-  </si>
-  <si>
-    <t>3.8.2, 4.1.9</t>
-  </si>
-  <si>
-    <t>3.5.3, 4.1.6</t>
-  </si>
-  <si>
     <t>3.5.2, 4.2.2</t>
   </si>
   <si>
     <t>3.5.4, 4.2.6</t>
   </si>
   <si>
-    <t>3.5.6, 4.2.7</t>
-  </si>
-  <si>
     <t>황정민</t>
-  </si>
-  <si>
-    <t>3.5.7, 4.2.11</t>
   </si>
   <si>
     <t>커스텀 챌린지 생성</t>
@@ -482,37 +465,7 @@
     <t>황정민, 김민기</t>
   </si>
   <si>
-    <t>3.5.8, 4.2.10</t>
-  </si>
-  <si>
-    <t>4.2.17</t>
-  </si>
-  <si>
-    <t>3.5.11, 4.2.13</t>
-  </si>
-  <si>
-    <t>3.5.10, 4.2.15</t>
-  </si>
-  <si>
     <t>3.5.12, 4.2.16</t>
-  </si>
-  <si>
-    <t>3.7.1, 4.3.3</t>
-  </si>
-  <si>
-    <t>3.7.3, 4.3.6</t>
-  </si>
-  <si>
-    <t>3.7.4, 4.3.6</t>
-  </si>
-  <si>
-    <t>3.7.8, 4.3.4</t>
-  </si>
-  <si>
-    <t>3.7.9, 4.3.5</t>
-  </si>
-  <si>
-    <t>3.7.6, 4.3.9</t>
   </si>
   <si>
     <t>댓글 작성</t>
@@ -524,16 +477,7 @@
     <t>댓글 삭제</t>
   </si>
   <si>
-    <t>3.7.6, 4.3.10</t>
-  </si>
-  <si>
-    <t>3.7.6, 4.3.11</t>
-  </si>
-  <si>
     <t>4.3.7</t>
-  </si>
-  <si>
-    <t>3.7.7, 4.3.13</t>
   </si>
   <si>
     <t>5.1.1</t>
@@ -588,9 +532,6 @@
   </si>
   <si>
     <t>작성된 게시글 조회</t>
-  </si>
-  <si>
-    <t>3.7.5, 4.3.14</t>
   </si>
   <si>
     <t>22.03.17 누락된 기능 추가</t>
@@ -2427,6 +2368,130 @@
  (1 - 5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>설명재,황정민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4, 4.1.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4, 4.1.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4.6, 4.1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황정민</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>김민기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.7, 4.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.6, 4.2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.1, 4.3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.2, 4.3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.4, 4.3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.3, 4.3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황정민,김민기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6.5, 4.3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.1, 4.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.3, 4.4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.4, 4.4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.8, 4.4.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.9, 4.4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.5, 4.4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.6, 4.4.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.6, 4.4.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.6, 4.4.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7.7, 4.4.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2618,7 +2683,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2646,6 +2711,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,7 +2908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3098,61 +3169,98 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3169,86 +3277,88 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3469,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3491,149 +3601,149 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="99"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="103"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="101"/>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="123"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="105"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="99"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="131"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="136" t="s">
+      <c r="I4" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="99"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="122" t="s">
+      <c r="A5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="129" t="s">
-        <v>235</v>
-      </c>
-      <c r="F5" s="124" t="s">
+      <c r="E5" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="127" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="122" t="s">
+      <c r="I5" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="122" t="s">
+      <c r="J5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="122" t="s">
+      <c r="K5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="122" t="s">
+      <c r="L5" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="123"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="138">
+      <c r="E7" s="91">
         <v>1</v>
       </c>
-      <c r="F7" s="139" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="140"/>
+      <c r="F7" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="109"/>
+      <c r="H7" s="92"/>
       <c r="I7" s="83" t="s">
         <v>126</v>
       </c>
@@ -3673,13 +3783,15 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="99"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="96"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="142">
+        <v>0.5</v>
+      </c>
       <c r="K8" s="3" t="s">
         <v>133</v>
       </c>
@@ -3704,22 +3816,22 @@
         <v>19</v>
       </c>
       <c r="B9" s="84" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="93" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="83">
         <v>1</v>
       </c>
-      <c r="F9" s="139" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="120"/>
-      <c r="H9" s="140"/>
+      <c r="F9" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="83" t="s">
         <v>119</v>
       </c>
@@ -3759,13 +3871,15 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="99"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="96"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="142">
+        <v>0.5</v>
+      </c>
       <c r="K10" s="3" t="s">
         <v>134</v>
       </c>
@@ -3796,18 +3910,20 @@
         <v>110</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="99"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="96"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="142">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="3" t="s">
         <v>134</v>
       </c>
@@ -3838,18 +3954,20 @@
         <v>110</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="118"/>
-      <c r="G12" s="99"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="96"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="142">
+        <v>0.6</v>
+      </c>
       <c r="K12" s="3" t="s">
         <v>125</v>
       </c>
@@ -3885,8 +4003,8 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="99"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="96"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
         <v>120</v>
@@ -3922,18 +4040,20 @@
         <v>110</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="99"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="96"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="142">
+        <v>0.6</v>
+      </c>
       <c r="K14" s="3" t="s">
         <v>125</v>
       </c>
@@ -3958,19 +4078,19 @@
         <v>25</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D15" s="75" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="116"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -3996,23 +4116,27 @@
         <v>26</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D16" s="57" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="116"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="144" t="s">
+        <v>221</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -4034,7 +4158,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>111</v>
@@ -4045,15 +4169,17 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="110"/>
-      <c r="G17" s="99"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="96"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="3"/>
+      <c r="I17" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" s="142">
+        <v>0.5</v>
+      </c>
       <c r="K17" s="3" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="6"/>
@@ -4087,15 +4213,17 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="99"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="96"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="3"/>
+      <c r="I18" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="J18" s="142">
+        <v>0.5</v>
+      </c>
       <c r="K18" s="3" t="s">
-        <v>136</v>
+        <v>219</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="6"/>
@@ -4124,20 +4252,22 @@
         <v>111</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E19" s="24">
         <v>2</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="99"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="96"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="I19" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="J19" s="142">
+        <v>0.5</v>
+      </c>
       <c r="K19" s="3" t="s">
-        <v>138</v>
+        <v>218</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="6"/>
@@ -4171,11 +4301,11 @@
       <c r="E20" s="81">
         <v>5</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
       <c r="H20" s="82"/>
       <c r="I20" s="89" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J20" s="83"/>
       <c r="K20" s="83" t="s">
@@ -4208,20 +4338,20 @@
         <v>111</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E21" s="81">
         <v>5</v>
       </c>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="82"/>
       <c r="I21" s="89" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J21" s="83"/>
       <c r="K21" s="83" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="6"/>
@@ -4244,26 +4374,28 @@
         <v>32</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E22" s="24">
         <v>1</v>
       </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="99"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="96"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J22" s="3"/>
+      <c r="I22" s="143" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" s="142">
+        <v>0.2</v>
+      </c>
       <c r="K22" s="3" t="s">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="6"/>
@@ -4289,7 +4421,7 @@
         <v>74</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D23" s="27" t="s">
         <v>48</v>
@@ -4297,15 +4429,17 @@
       <c r="E23" s="24">
         <v>2</v>
       </c>
-      <c r="F23" s="110"/>
-      <c r="G23" s="99"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="96"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="142">
+        <v>0.2</v>
+      </c>
       <c r="K23" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="6"/>
@@ -4328,19 +4462,19 @@
         <v>34</v>
       </c>
       <c r="B24" s="61" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C24" s="60" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D24" s="57" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E24" s="24">
         <v>2</v>
       </c>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="119"/>
       <c r="H24" s="10"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4366,26 +4500,28 @@
         <v>35</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C25" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="E25" s="24">
         <v>2</v>
       </c>
-      <c r="F25" s="102"/>
-      <c r="G25" s="99"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="96"/>
       <c r="H25" s="10"/>
       <c r="I25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="142">
+        <v>0.2</v>
+      </c>
       <c r="K25" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="6"/>
@@ -4419,15 +4555,17 @@
       <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="96"/>
-      <c r="G26" s="99"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="96"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="142">
+        <v>0.2</v>
+      </c>
       <c r="K26" s="3" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="6"/>
@@ -4450,19 +4588,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="E27" s="24">
         <v>2</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="95"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -4488,19 +4626,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D28" s="71" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E28" s="24">
         <v>2</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
       <c r="H28" s="10"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4537,15 +4675,15 @@
       <c r="E29" s="81">
         <v>5</v>
       </c>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="109"/>
       <c r="H29" s="82"/>
       <c r="I29" s="89" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="J29" s="83"/>
       <c r="K29" s="83" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="6"/>
@@ -4574,20 +4712,20 @@
         <v>113</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E30" s="24">
         <v>3</v>
       </c>
-      <c r="F30" s="96"/>
-      <c r="G30" s="99"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="96"/>
       <c r="H30" s="10"/>
       <c r="I30" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="6"/>
@@ -4610,7 +4748,7 @@
         <v>104</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>113</v>
@@ -4621,15 +4759,15 @@
       <c r="E31" s="24">
         <v>3</v>
       </c>
-      <c r="F31" s="96"/>
-      <c r="G31" s="103"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="10"/>
       <c r="I31" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="6"/>
@@ -4652,26 +4790,26 @@
         <v>105</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E32" s="24">
         <v>3</v>
       </c>
-      <c r="F32" s="104"/>
-      <c r="G32" s="101"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="132"/>
       <c r="H32" s="43"/>
       <c r="I32" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9" t="s">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="6"/>
@@ -4705,15 +4843,15 @@
       <c r="E33" s="24">
         <v>3</v>
       </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="105"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="104"/>
       <c r="H33" s="7"/>
       <c r="I33" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="6"/>
@@ -4736,23 +4874,27 @@
         <v>107</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E34" s="24">
         <v>3</v>
       </c>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="137"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="3"/>
+      <c r="I34" s="145" t="s">
+        <v>229</v>
+      </c>
       <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="K34" s="9" t="s">
+        <v>228</v>
+      </c>
       <c r="L34" s="9"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -4771,28 +4913,32 @@
     </row>
     <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B35" s="63" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D35" s="67" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E35" s="24">
         <v>3</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="95"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="127"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="3"/>
+      <c r="I35" s="145" t="s">
+        <v>229</v>
+      </c>
       <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="K35" s="9" t="s">
+        <v>230</v>
+      </c>
       <c r="L35" s="9" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -4817,23 +4963,23 @@
         <v>79</v>
       </c>
       <c r="C36" s="77" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E36" s="24">
         <v>3</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="99"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="96"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9" t="s">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="6"/>
@@ -4865,18 +5011,18 @@
         <v>53</v>
       </c>
       <c r="E37" s="47"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="107"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="135"/>
       <c r="H37" s="48"/>
       <c r="I37" s="49" t="s">
         <v>120</v>
       </c>
       <c r="J37" s="50"/>
       <c r="K37" s="50" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
@@ -4895,7 +5041,7 @@
     </row>
     <row r="38" spans="1:26" ht="22.5">
       <c r="A38" s="21" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>81</v>
@@ -4904,20 +5050,20 @@
         <v>114</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E38" s="24">
         <v>4</v>
       </c>
-      <c r="F38" s="96"/>
-      <c r="G38" s="99"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="96"/>
       <c r="H38" s="10"/>
       <c r="I38" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="6"/>
@@ -4937,7 +5083,7 @@
     </row>
     <row r="39" spans="1:26" ht="12.75">
       <c r="A39" s="21" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>82</v>
@@ -4946,20 +5092,20 @@
         <v>114</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="E39" s="25">
         <v>4</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="99"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="96"/>
       <c r="H39" s="10"/>
       <c r="I39" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9" t="s">
-        <v>155</v>
+        <v>232</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="6"/>
@@ -4979,7 +5125,7 @@
     </row>
     <row r="40" spans="1:26" ht="12.75">
       <c r="A40" s="21" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>92</v>
@@ -4988,20 +5134,20 @@
         <v>114</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E40" s="25">
         <v>4</v>
       </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="99"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="96"/>
       <c r="H40" s="66"/>
       <c r="I40" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="6"/>
@@ -5021,7 +5167,7 @@
     </row>
     <row r="41" spans="1:26" ht="12.75">
       <c r="A41" s="21" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>83</v>
@@ -5035,15 +5181,15 @@
       <c r="E41" s="25">
         <v>4</v>
       </c>
-      <c r="F41" s="102"/>
-      <c r="G41" s="99"/>
+      <c r="F41" s="130"/>
+      <c r="G41" s="96"/>
       <c r="H41" s="10"/>
       <c r="I41" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J41" s="9"/>
       <c r="K41" s="9" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="6"/>
@@ -5063,7 +5209,7 @@
     </row>
     <row r="42" spans="1:26" ht="12.75">
       <c r="A42" s="21" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>84</v>
@@ -5077,15 +5223,15 @@
       <c r="E42" s="25">
         <v>4</v>
       </c>
-      <c r="F42" s="96"/>
-      <c r="G42" s="99"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="96"/>
       <c r="H42" s="10"/>
       <c r="I42" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J42" s="9"/>
       <c r="K42" s="9" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="6"/>
@@ -5105,7 +5251,7 @@
     </row>
     <row r="43" spans="1:26" ht="12.75">
       <c r="A43" s="21" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B43" s="30" t="s">
         <v>91</v>
@@ -5114,23 +5260,23 @@
         <v>114</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E43" s="25">
         <v>4</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="101"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="132"/>
       <c r="H43" s="10"/>
       <c r="I43" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J43" s="9"/>
       <c r="K43" s="9" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
@@ -5149,20 +5295,20 @@
     </row>
     <row r="44" spans="1:26" ht="21">
       <c r="A44" s="21" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="70" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E44" s="25">
         <v>4</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="95"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="10"/>
       <c r="I44" s="3"/>
       <c r="J44" s="9"/>
@@ -5185,29 +5331,29 @@
     </row>
     <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="21" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C45" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E45" s="25">
         <v>4</v>
       </c>
-      <c r="F45" s="96"/>
-      <c r="G45" s="99"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="96"/>
       <c r="H45" s="10"/>
       <c r="I45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J45" s="9"/>
       <c r="K45" s="9" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="6"/>
@@ -5227,29 +5373,29 @@
     </row>
     <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="21" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C46" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E46" s="25">
         <v>4</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="101"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="132"/>
       <c r="H46" s="10"/>
       <c r="I46" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="6"/>
@@ -5269,29 +5415,29 @@
     </row>
     <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="21" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C47" s="32" t="s">
         <v>114</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E47" s="25">
         <v>4</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="101"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="132"/>
       <c r="H47" s="10"/>
       <c r="I47" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="6"/>
@@ -5311,29 +5457,29 @@
     </row>
     <row r="48" spans="1:26" ht="12.75">
       <c r="A48" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="149">
         <v>4</v>
       </c>
-      <c r="F48" s="96"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9" t="s">
-        <v>165</v>
+      <c r="F48" s="150"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="153" t="s">
+        <v>138</v>
+      </c>
+      <c r="J48" s="154"/>
+      <c r="K48" s="154" t="s">
+        <v>148</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="6"/>
@@ -5353,7 +5499,7 @@
     </row>
     <row r="49" spans="1:26" ht="12.75">
       <c r="A49" s="21" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B49" s="30" t="s">
         <v>85</v>
@@ -5367,15 +5513,15 @@
       <c r="E49" s="24">
         <v>4</v>
       </c>
-      <c r="F49" s="96"/>
-      <c r="G49" s="99"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="10"/>
       <c r="I49" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="41" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="6"/>
@@ -5409,15 +5555,15 @@
       <c r="E50" s="24">
         <v>4</v>
       </c>
-      <c r="F50" s="96"/>
-      <c r="G50" s="99"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="96"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="6"/>
@@ -5451,15 +5597,15 @@
       <c r="E51" s="24">
         <v>5</v>
       </c>
-      <c r="F51" s="94"/>
-      <c r="G51" s="101"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="132"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J51" s="9"/>
       <c r="K51" s="9" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="6"/>
@@ -5493,15 +5639,15 @@
       <c r="E52" s="24">
         <v>5</v>
       </c>
-      <c r="F52" s="94"/>
-      <c r="G52" s="101"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="132"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J52" s="9"/>
       <c r="K52" s="9" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="6"/>
@@ -5535,15 +5681,15 @@
       <c r="E53" s="24">
         <v>2</v>
       </c>
-      <c r="F53" s="96"/>
-      <c r="G53" s="99"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="96"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="6"/>
@@ -5577,15 +5723,15 @@
       <c r="E54" s="24">
         <v>2</v>
       </c>
-      <c r="F54" s="96"/>
-      <c r="G54" s="99"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="96"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J54" s="9"/>
       <c r="K54" s="9" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="6"/>
@@ -5619,15 +5765,15 @@
       <c r="E55" s="42">
         <v>2</v>
       </c>
-      <c r="F55" s="96"/>
-      <c r="G55" s="99"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="96"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="L55" s="11"/>
       <c r="M55" s="6"/>
@@ -5661,15 +5807,15 @@
       <c r="E56" s="42">
         <v>2</v>
       </c>
-      <c r="F56" s="96"/>
-      <c r="G56" s="99"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="96"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="L56" s="11"/>
       <c r="M56" s="6"/>
@@ -5703,15 +5849,15 @@
       <c r="E57" s="42">
         <v>4</v>
       </c>
-      <c r="F57" s="96"/>
-      <c r="G57" s="99"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="96"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J57" s="11"/>
       <c r="K57" s="11" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L57" s="11"/>
       <c r="M57" s="6"/>
@@ -5745,15 +5891,15 @@
       <c r="E58" s="42">
         <v>4</v>
       </c>
-      <c r="F58" s="96"/>
-      <c r="G58" s="99"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="96"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="L58" s="11"/>
       <c r="M58" s="6"/>
@@ -5787,15 +5933,15 @@
       <c r="E59" s="42">
         <v>4</v>
       </c>
-      <c r="F59" s="96"/>
-      <c r="G59" s="99"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="96"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="L59" s="11"/>
       <c r="M59" s="6"/>
@@ -5829,15 +5975,15 @@
       <c r="E60" s="25">
         <v>4</v>
       </c>
-      <c r="F60" s="96"/>
-      <c r="G60" s="99"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="96"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L60" s="11"/>
       <c r="M60" s="6"/>
@@ -5871,15 +6017,15 @@
       <c r="E61" s="25">
         <v>4</v>
       </c>
-      <c r="F61" s="100"/>
-      <c r="G61" s="99"/>
+      <c r="F61" s="133"/>
+      <c r="G61" s="96"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9" t="s">
         <v>119</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="6"/>
@@ -5903,8 +6049,8 @@
       <c r="C62" s="11"/>
       <c r="D62" s="26"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="96"/>
-      <c r="G62" s="91"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="138"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -5931,8 +6077,8 @@
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="96"/>
-      <c r="G63" s="91"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="138"/>
       <c r="H63" s="5"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -5959,8 +6105,8 @@
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="96"/>
-      <c r="G64" s="91"/>
+      <c r="F64" s="120"/>
+      <c r="G64" s="138"/>
       <c r="H64" s="5"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -5987,8 +6133,8 @@
       <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="96"/>
-      <c r="G65" s="91"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="138"/>
       <c r="H65" s="5"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -6015,8 +6161,8 @@
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="96"/>
-      <c r="G66" s="91"/>
+      <c r="F66" s="120"/>
+      <c r="G66" s="138"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -6043,8 +6189,8 @@
       <c r="C67" s="11"/>
       <c r="D67" s="17"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="91"/>
+      <c r="F67" s="139"/>
+      <c r="G67" s="138"/>
       <c r="H67" s="17"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -6071,8 +6217,8 @@
       <c r="C68" s="11"/>
       <c r="D68" s="17"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
+      <c r="F68" s="139"/>
+      <c r="G68" s="138"/>
       <c r="H68" s="17"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
@@ -6099,8 +6245,8 @@
       <c r="C69" s="16"/>
       <c r="D69" s="18"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="91"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="138"/>
       <c r="H69" s="18"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
@@ -6127,8 +6273,8 @@
       <c r="C70" s="16"/>
       <c r="D70" s="5"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="91"/>
+      <c r="F70" s="120"/>
+      <c r="G70" s="138"/>
       <c r="H70" s="5"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
@@ -6155,8 +6301,8 @@
       <c r="C71" s="16"/>
       <c r="D71" s="5"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="91"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="138"/>
       <c r="H71" s="5"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -6183,8 +6329,8 @@
       <c r="C72" s="16"/>
       <c r="D72" s="5"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="96"/>
-      <c r="G72" s="91"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="138"/>
       <c r="H72" s="5"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -6211,8 +6357,8 @@
       <c r="C73" s="16"/>
       <c r="D73" s="5"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="98"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="141"/>
       <c r="H73" s="5"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
@@ -6239,8 +6385,8 @@
       <c r="C74" s="16"/>
       <c r="D74" s="5"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="91"/>
+      <c r="F74" s="120"/>
+      <c r="G74" s="138"/>
       <c r="H74" s="5"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
@@ -6267,8 +6413,8 @@
       <c r="C75" s="11"/>
       <c r="D75" s="17"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="91"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="138"/>
       <c r="H75" s="17"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -6295,8 +6441,8 @@
       <c r="C76" s="11"/>
       <c r="D76" s="17"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="90"/>
-      <c r="G76" s="91"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="138"/>
       <c r="H76" s="17"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -6323,8 +6469,8 @@
       <c r="C77" s="11"/>
       <c r="D77" s="17"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="91"/>
+      <c r="F77" s="139"/>
+      <c r="G77" s="138"/>
       <c r="H77" s="17"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -6351,8 +6497,8 @@
       <c r="C78" s="11"/>
       <c r="D78" s="17"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="90"/>
-      <c r="G78" s="91"/>
+      <c r="F78" s="139"/>
+      <c r="G78" s="138"/>
       <c r="H78" s="17"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -6379,8 +6525,8 @@
       <c r="C79" s="11"/>
       <c r="D79" s="17"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="91"/>
+      <c r="F79" s="139"/>
+      <c r="G79" s="138"/>
       <c r="H79" s="17"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6407,8 +6553,8 @@
       <c r="C80" s="11"/>
       <c r="D80" s="17"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="91"/>
+      <c r="F80" s="139"/>
+      <c r="G80" s="138"/>
       <c r="H80" s="17"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -6435,8 +6581,8 @@
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="92"/>
-      <c r="G81" s="91"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="138"/>
       <c r="H81" s="5"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -6463,8 +6609,8 @@
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="93"/>
-      <c r="G82" s="91"/>
+      <c r="F82" s="110"/>
+      <c r="G82" s="138"/>
       <c r="H82" s="5"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -32919,83 +33065,6 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="F81:G81"/>
@@ -33012,6 +33081,83 @@
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
+++ b/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\KSA-final-project\03-요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1677A52-AAD4-438A-B571-5DEF2445EC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC6D79-3ECB-4F46-8028-4FE24222A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3181,146 +3181,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3345,12 +3205,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3358,6 +3212,152 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3579,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3601,127 +3601,127 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="114"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="150" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="101"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="120"/>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="98"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
+      <c r="A3" s="140"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="114"/>
       <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="148" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="149"/>
       <c r="H4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="105" t="s">
+      <c r="I4" s="154" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="96"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="147" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="114" t="s">
+      <c r="G5" s="143"/>
+      <c r="H5" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="97" t="s">
+      <c r="L5" s="139" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="98"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
+      <c r="A6" s="140"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="21" t="s">
@@ -3739,10 +3739,10 @@
       <c r="E7" s="91">
         <v>1</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="109"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="92"/>
       <c r="I7" s="83" t="s">
         <v>126</v>
@@ -3783,13 +3783,13 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="96"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="114"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="142">
+      <c r="J8" s="94">
         <v>0.5</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -3827,10 +3827,10 @@
       <c r="E9" s="83">
         <v>1</v>
       </c>
-      <c r="F9" s="108" t="s">
+      <c r="F9" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="109"/>
+      <c r="G9" s="137"/>
       <c r="H9" s="92"/>
       <c r="I9" s="83" t="s">
         <v>119</v>
@@ -3871,13 +3871,13 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="114"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="142">
+      <c r="J10" s="94">
         <v>0.5</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -3915,13 +3915,13 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="96"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="114"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="142">
+      <c r="J11" s="94">
         <v>0.5</v>
       </c>
       <c r="K11" s="3" t="s">
@@ -3959,13 +3959,13 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="115"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="142">
+      <c r="J12" s="94">
         <v>0.6</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -4003,8 +4003,8 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="114"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
         <v>120</v>
@@ -4045,13 +4045,13 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="116"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="142">
+      <c r="J14" s="94">
         <v>0.6</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -4089,8 +4089,8 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="133"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4127,10 +4127,10 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="118"/>
-      <c r="G16" s="119"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="133"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="144" t="s">
+      <c r="I16" s="96" t="s">
         <v>221</v>
       </c>
       <c r="J16" s="3"/>
@@ -4169,13 +4169,13 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="143" t="s">
+      <c r="I17" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="J17" s="142">
+      <c r="J17" s="94">
         <v>0.5</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -4213,13 +4213,13 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="116"/>
-      <c r="G18" s="96"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="114"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="143" t="s">
+      <c r="I18" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="J18" s="142">
+      <c r="J18" s="94">
         <v>0.5</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -4257,13 +4257,13 @@
       <c r="E19" s="24">
         <v>2</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="143" t="s">
+      <c r="I19" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="J19" s="142">
+      <c r="J19" s="94">
         <v>0.5</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -4301,8 +4301,8 @@
       <c r="E20" s="81">
         <v>5</v>
       </c>
-      <c r="F20" s="122"/>
-      <c r="G20" s="123"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
       <c r="H20" s="82"/>
       <c r="I20" s="89" t="s">
         <v>215</v>
@@ -4343,8 +4343,8 @@
       <c r="E21" s="81">
         <v>5</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="125"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="82"/>
       <c r="I21" s="89" t="s">
         <v>215</v>
@@ -4383,15 +4383,15 @@
         <v>172</v>
       </c>
       <c r="E22" s="24">
-        <v>1</v>
-      </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="96"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="134"/>
+      <c r="G22" s="114"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="143" t="s">
+      <c r="I22" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="J22" s="142">
+      <c r="J22" s="94">
         <v>0.2</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -4429,13 +4429,13 @@
       <c r="E23" s="24">
         <v>2</v>
       </c>
-      <c r="F23" s="121"/>
-      <c r="G23" s="96"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="142">
+      <c r="J23" s="94">
         <v>0.2</v>
       </c>
       <c r="K23" s="3" t="s">
@@ -4473,8 +4473,8 @@
       <c r="E24" s="24">
         <v>2</v>
       </c>
-      <c r="F24" s="128"/>
-      <c r="G24" s="119"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="133"/>
       <c r="H24" s="10"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4511,13 +4511,13 @@
       <c r="E25" s="24">
         <v>2</v>
       </c>
-      <c r="F25" s="130"/>
-      <c r="G25" s="96"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="10"/>
       <c r="I25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="142">
+      <c r="J25" s="94">
         <v>0.2</v>
       </c>
       <c r="K25" s="3" t="s">
@@ -4555,13 +4555,13 @@
       <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="96"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="142">
+      <c r="J26" s="94">
         <v>0.2</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -4599,8 +4599,8 @@
       <c r="E27" s="24">
         <v>2</v>
       </c>
-      <c r="F27" s="126"/>
-      <c r="G27" s="127"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
       <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -4637,8 +4637,8 @@
       <c r="E28" s="24">
         <v>2</v>
       </c>
-      <c r="F28" s="126"/>
-      <c r="G28" s="127"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
       <c r="H28" s="10"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4675,8 +4675,8 @@
       <c r="E29" s="81">
         <v>5</v>
       </c>
-      <c r="F29" s="117"/>
-      <c r="G29" s="109"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="82"/>
       <c r="I29" s="89" t="s">
         <v>215</v>
@@ -4717,8 +4717,8 @@
       <c r="E30" s="24">
         <v>3</v>
       </c>
-      <c r="F30" s="120"/>
-      <c r="G30" s="96"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="114"/>
       <c r="H30" s="10"/>
       <c r="I30" s="3" t="s">
         <v>120</v>
@@ -4759,8 +4759,8 @@
       <c r="E31" s="24">
         <v>3</v>
       </c>
-      <c r="F31" s="120"/>
-      <c r="G31" s="101"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="10"/>
       <c r="I31" s="3" t="s">
         <v>120</v>
@@ -4801,8 +4801,8 @@
       <c r="E32" s="24">
         <v>3</v>
       </c>
-      <c r="F32" s="131"/>
-      <c r="G32" s="132"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="116"/>
       <c r="H32" s="43"/>
       <c r="I32" s="3" t="s">
         <v>138</v>
@@ -4843,8 +4843,8 @@
       <c r="E33" s="24">
         <v>3</v>
       </c>
-      <c r="F33" s="130"/>
-      <c r="G33" s="104"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="7"/>
       <c r="I33" s="3" t="s">
         <v>120</v>
@@ -4885,10 +4885,10 @@
       <c r="E34" s="24">
         <v>3</v>
       </c>
-      <c r="F34" s="136"/>
-      <c r="G34" s="137"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="126"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="145" t="s">
+      <c r="I34" s="97" t="s">
         <v>229</v>
       </c>
       <c r="J34" s="9"/>
@@ -4927,10 +4927,10 @@
       <c r="E35" s="24">
         <v>3</v>
       </c>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="110"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="145" t="s">
+      <c r="I35" s="97" t="s">
         <v>229</v>
       </c>
       <c r="J35" s="9"/>
@@ -4971,8 +4971,8 @@
       <c r="E36" s="24">
         <v>3</v>
       </c>
-      <c r="F36" s="133"/>
-      <c r="G36" s="96"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="114"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
         <v>120</v>
@@ -5011,8 +5011,8 @@
         <v>53</v>
       </c>
       <c r="E37" s="47"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="135"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
       <c r="H37" s="48"/>
       <c r="I37" s="49" t="s">
         <v>120</v>
@@ -5055,8 +5055,8 @@
       <c r="E38" s="24">
         <v>4</v>
       </c>
-      <c r="F38" s="120"/>
-      <c r="G38" s="96"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="114"/>
       <c r="H38" s="10"/>
       <c r="I38" s="3" t="s">
         <v>120</v>
@@ -5097,8 +5097,8 @@
       <c r="E39" s="25">
         <v>4</v>
       </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="96"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="114"/>
       <c r="H39" s="10"/>
       <c r="I39" s="3" t="s">
         <v>120</v>
@@ -5139,8 +5139,8 @@
       <c r="E40" s="25">
         <v>4</v>
       </c>
-      <c r="F40" s="133"/>
-      <c r="G40" s="96"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="66"/>
       <c r="I40" s="3" t="s">
         <v>120</v>
@@ -5181,8 +5181,8 @@
       <c r="E41" s="25">
         <v>4</v>
       </c>
-      <c r="F41" s="130"/>
-      <c r="G41" s="96"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="10"/>
       <c r="I41" s="3" t="s">
         <v>120</v>
@@ -5223,8 +5223,8 @@
       <c r="E42" s="25">
         <v>4</v>
       </c>
-      <c r="F42" s="120"/>
-      <c r="G42" s="96"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="114"/>
       <c r="H42" s="10"/>
       <c r="I42" s="3" t="s">
         <v>120</v>
@@ -5265,8 +5265,8 @@
       <c r="E43" s="25">
         <v>4</v>
       </c>
-      <c r="F43" s="126"/>
-      <c r="G43" s="132"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="116"/>
       <c r="H43" s="10"/>
       <c r="I43" s="3" t="s">
         <v>143</v>
@@ -5307,8 +5307,8 @@
       <c r="E44" s="25">
         <v>4</v>
       </c>
-      <c r="F44" s="126"/>
-      <c r="G44" s="127"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="110"/>
       <c r="H44" s="10"/>
       <c r="I44" s="3"/>
       <c r="J44" s="9"/>
@@ -5345,8 +5345,8 @@
       <c r="E45" s="25">
         <v>4</v>
       </c>
-      <c r="F45" s="120"/>
-      <c r="G45" s="96"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="114"/>
       <c r="H45" s="10"/>
       <c r="I45" s="3" t="s">
         <v>120</v>
@@ -5387,8 +5387,8 @@
       <c r="E46" s="25">
         <v>4</v>
       </c>
-      <c r="F46" s="126"/>
-      <c r="G46" s="132"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="10"/>
       <c r="I46" s="3" t="s">
         <v>143</v>
@@ -5429,8 +5429,8 @@
       <c r="E47" s="25">
         <v>4</v>
       </c>
-      <c r="F47" s="126"/>
-      <c r="G47" s="132"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="116"/>
       <c r="H47" s="10"/>
       <c r="I47" s="3" t="s">
         <v>143</v>
@@ -5459,26 +5459,26 @@
       <c r="A48" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B48" s="146" t="s">
+      <c r="B48" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="147" t="s">
+      <c r="C48" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="148" t="s">
+      <c r="D48" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="149">
+      <c r="E48" s="101">
         <v>4</v>
       </c>
-      <c r="F48" s="150"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="153" t="s">
+      <c r="F48" s="117"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="J48" s="154"/>
-      <c r="K48" s="154" t="s">
+      <c r="J48" s="104"/>
+      <c r="K48" s="104" t="s">
         <v>148</v>
       </c>
       <c r="L48" s="9"/>
@@ -5513,8 +5513,8 @@
       <c r="E49" s="24">
         <v>4</v>
       </c>
-      <c r="F49" s="120"/>
-      <c r="G49" s="96"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="114"/>
       <c r="H49" s="10"/>
       <c r="I49" s="3" t="s">
         <v>120</v>
@@ -5555,8 +5555,8 @@
       <c r="E50" s="24">
         <v>4</v>
       </c>
-      <c r="F50" s="120"/>
-      <c r="G50" s="96"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="114"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9" t="s">
         <v>119</v>
@@ -5597,8 +5597,8 @@
       <c r="E51" s="24">
         <v>5</v>
       </c>
-      <c r="F51" s="126"/>
-      <c r="G51" s="132"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="116"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9" t="s">
         <v>119</v>
@@ -5639,8 +5639,8 @@
       <c r="E52" s="24">
         <v>5</v>
       </c>
-      <c r="F52" s="126"/>
-      <c r="G52" s="132"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="116"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9" t="s">
         <v>119</v>
@@ -5681,8 +5681,8 @@
       <c r="E53" s="24">
         <v>2</v>
       </c>
-      <c r="F53" s="120"/>
-      <c r="G53" s="96"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="114"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9" t="s">
         <v>119</v>
@@ -5723,8 +5723,8 @@
       <c r="E54" s="24">
         <v>2</v>
       </c>
-      <c r="F54" s="120"/>
-      <c r="G54" s="96"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="114"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9" t="s">
         <v>119</v>
@@ -5765,8 +5765,8 @@
       <c r="E55" s="42">
         <v>2</v>
       </c>
-      <c r="F55" s="120"/>
-      <c r="G55" s="96"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="114"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
         <v>119</v>
@@ -5807,8 +5807,8 @@
       <c r="E56" s="42">
         <v>2</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="96"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="114"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9" t="s">
         <v>119</v>
@@ -5849,8 +5849,8 @@
       <c r="E57" s="42">
         <v>4</v>
       </c>
-      <c r="F57" s="120"/>
-      <c r="G57" s="96"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="114"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9" t="s">
         <v>119</v>
@@ -5891,8 +5891,8 @@
       <c r="E58" s="42">
         <v>4</v>
       </c>
-      <c r="F58" s="120"/>
-      <c r="G58" s="96"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="114"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9" t="s">
         <v>119</v>
@@ -5933,8 +5933,8 @@
       <c r="E59" s="42">
         <v>4</v>
       </c>
-      <c r="F59" s="120"/>
-      <c r="G59" s="96"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="114"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9" t="s">
         <v>119</v>
@@ -5975,8 +5975,8 @@
       <c r="E60" s="25">
         <v>4</v>
       </c>
-      <c r="F60" s="120"/>
-      <c r="G60" s="96"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="114"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9" t="s">
         <v>119</v>
@@ -6017,8 +6017,8 @@
       <c r="E61" s="25">
         <v>4</v>
       </c>
-      <c r="F61" s="133"/>
-      <c r="G61" s="96"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="114"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9" t="s">
         <v>119</v>
@@ -6049,8 +6049,8 @@
       <c r="C62" s="11"/>
       <c r="D62" s="26"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="138"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="106"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -6077,8 +6077,8 @@
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="138"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="106"/>
       <c r="H63" s="5"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -6105,8 +6105,8 @@
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="138"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="106"/>
       <c r="H64" s="5"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -6133,8 +6133,8 @@
       <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="138"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="106"/>
       <c r="H65" s="5"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -6161,8 +6161,8 @@
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="120"/>
-      <c r="G66" s="138"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="106"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -6189,8 +6189,8 @@
       <c r="C67" s="11"/>
       <c r="D67" s="17"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="138"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="106"/>
       <c r="H67" s="17"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -6217,8 +6217,8 @@
       <c r="C68" s="11"/>
       <c r="D68" s="17"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="139"/>
-      <c r="G68" s="138"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="106"/>
       <c r="H68" s="17"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
@@ -6245,8 +6245,8 @@
       <c r="C69" s="16"/>
       <c r="D69" s="18"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="138"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="106"/>
       <c r="H69" s="18"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
@@ -6273,8 +6273,8 @@
       <c r="C70" s="16"/>
       <c r="D70" s="5"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="120"/>
-      <c r="G70" s="138"/>
+      <c r="F70" s="111"/>
+      <c r="G70" s="106"/>
       <c r="H70" s="5"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
@@ -6301,8 +6301,8 @@
       <c r="C71" s="16"/>
       <c r="D71" s="5"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="138"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="106"/>
       <c r="H71" s="5"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -6329,8 +6329,8 @@
       <c r="C72" s="16"/>
       <c r="D72" s="5"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="138"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="106"/>
       <c r="H72" s="5"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -6357,8 +6357,8 @@
       <c r="C73" s="16"/>
       <c r="D73" s="5"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="141"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="113"/>
       <c r="H73" s="5"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
@@ -6385,8 +6385,8 @@
       <c r="C74" s="16"/>
       <c r="D74" s="5"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="138"/>
+      <c r="F74" s="111"/>
+      <c r="G74" s="106"/>
       <c r="H74" s="5"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
@@ -6413,8 +6413,8 @@
       <c r="C75" s="11"/>
       <c r="D75" s="17"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="139"/>
-      <c r="G75" s="138"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="106"/>
       <c r="H75" s="17"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -6441,8 +6441,8 @@
       <c r="C76" s="11"/>
       <c r="D76" s="17"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="139"/>
-      <c r="G76" s="138"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="106"/>
       <c r="H76" s="17"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -6469,8 +6469,8 @@
       <c r="C77" s="11"/>
       <c r="D77" s="17"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="139"/>
-      <c r="G77" s="138"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="106"/>
       <c r="H77" s="17"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -6497,8 +6497,8 @@
       <c r="C78" s="11"/>
       <c r="D78" s="17"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="139"/>
-      <c r="G78" s="138"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="106"/>
       <c r="H78" s="17"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -6525,8 +6525,8 @@
       <c r="C79" s="11"/>
       <c r="D79" s="17"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="139"/>
-      <c r="G79" s="138"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="106"/>
       <c r="H79" s="17"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6553,8 +6553,8 @@
       <c r="C80" s="11"/>
       <c r="D80" s="17"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="139"/>
-      <c r="G80" s="138"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="106"/>
       <c r="H80" s="17"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -6581,8 +6581,8 @@
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="138"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="106"/>
       <c r="H81" s="5"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -6609,8 +6609,8 @@
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="110"/>
-      <c r="G82" s="138"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="106"/>
       <c r="H82" s="5"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -33065,6 +33065,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="F81:G81"/>
@@ -33081,83 +33158,6 @@
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
+++ b/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\KSA-final-project\03-요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03BC6D79-3ECB-4F46-8028-4FE24222A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044034F2-9663-4EB2-B246-AC8C693207DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2908,7 +2908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3214,67 +3214,86 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3291,73 +3310,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3579,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3601,127 +3604,127 @@
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="114"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="107"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="120"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="112"/>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="140"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="122"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="115"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="114"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="149"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="154" t="s">
+      <c r="I4" s="116" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="114"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="118" t="s">
         <v>216</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="145" t="s">
+      <c r="G5" s="123"/>
+      <c r="H5" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="108" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="140"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="21" t="s">
@@ -3739,10 +3742,10 @@
       <c r="E7" s="91">
         <v>1</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="137"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="92"/>
       <c r="I7" s="83" t="s">
         <v>126</v>
@@ -3783,8 +3786,8 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="114"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="107"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
         <v>120</v>
@@ -3827,10 +3830,10 @@
       <c r="E9" s="83">
         <v>1</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="92"/>
       <c r="I9" s="83" t="s">
         <v>119</v>
@@ -3871,8 +3874,8 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="114"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
         <v>120</v>
@@ -3915,8 +3918,8 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="114"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
         <v>120</v>
@@ -3959,8 +3962,8 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="135"/>
-      <c r="G12" s="114"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="107"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
         <v>120</v>
@@ -4003,8 +4006,8 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="114"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="5"/>
       <c r="I13" s="3" t="s">
         <v>120</v>
@@ -4045,8 +4048,8 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="114"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
         <v>120</v>
@@ -4089,8 +4092,8 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="133"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="130"/>
       <c r="H15" s="5"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -4127,8 +4130,8 @@
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="133"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="130"/>
       <c r="H16" s="5"/>
       <c r="I16" s="96" t="s">
         <v>221</v>
@@ -4169,8 +4172,8 @@
       <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="114"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="10"/>
       <c r="I17" s="95" t="s">
         <v>217</v>
@@ -4213,8 +4216,8 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="114"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="5"/>
       <c r="I18" s="95" t="s">
         <v>217</v>
@@ -4257,8 +4260,8 @@
       <c r="E19" s="24">
         <v>2</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="114"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="10"/>
       <c r="I19" s="95" t="s">
         <v>217</v>
@@ -4301,8 +4304,8 @@
       <c r="E20" s="81">
         <v>5</v>
       </c>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="134"/>
       <c r="H20" s="82"/>
       <c r="I20" s="89" t="s">
         <v>215</v>
@@ -4343,8 +4346,8 @@
       <c r="E21" s="81">
         <v>5</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="82"/>
       <c r="I21" s="89" t="s">
         <v>215</v>
@@ -4385,8 +4388,8 @@
       <c r="E22" s="24">
         <v>4</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="114"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="10"/>
       <c r="I22" s="95" t="s">
         <v>217</v>
@@ -4429,14 +4432,14 @@
       <c r="E23" s="24">
         <v>2</v>
       </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="114"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="107"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J23" s="94">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>136</v>
@@ -4473,8 +4476,8 @@
       <c r="E24" s="24">
         <v>2</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="130"/>
       <c r="H24" s="10"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -4511,14 +4514,14 @@
       <c r="E25" s="24">
         <v>2</v>
       </c>
-      <c r="F25" s="119"/>
-      <c r="G25" s="114"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="107"/>
       <c r="H25" s="10"/>
       <c r="I25" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J25" s="94">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>137</v>
@@ -4555,14 +4558,14 @@
       <c r="E26" s="24">
         <v>2</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="114"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="107"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J26" s="94">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>223</v>
@@ -4599,8 +4602,8 @@
       <c r="E27" s="24">
         <v>2</v>
       </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="138"/>
       <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -4637,8 +4640,8 @@
       <c r="E28" s="24">
         <v>2</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="138"/>
       <c r="H28" s="10"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -4675,8 +4678,8 @@
       <c r="E29" s="81">
         <v>5</v>
       </c>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="82"/>
       <c r="I29" s="89" t="s">
         <v>215</v>
@@ -4717,13 +4720,15 @@
       <c r="E30" s="24">
         <v>3</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="114"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="107"/>
       <c r="H30" s="10"/>
       <c r="I30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="3"/>
+      <c r="J30" s="94">
+        <v>0.5</v>
+      </c>
       <c r="K30" s="3" t="s">
         <v>224</v>
       </c>
@@ -4759,13 +4764,15 @@
       <c r="E31" s="24">
         <v>3</v>
       </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="120"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="112"/>
       <c r="H31" s="10"/>
       <c r="I31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="155">
+        <v>0.5</v>
+      </c>
       <c r="K31" s="9" t="s">
         <v>225</v>
       </c>
@@ -4801,13 +4808,15 @@
       <c r="E32" s="24">
         <v>3</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="116"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
       <c r="H32" s="43"/>
       <c r="I32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="155">
+        <v>0.5</v>
+      </c>
       <c r="K32" s="9" t="s">
         <v>226</v>
       </c>
@@ -4843,13 +4852,15 @@
       <c r="E33" s="24">
         <v>3</v>
       </c>
-      <c r="F33" s="119"/>
-      <c r="G33" s="122"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="115"/>
       <c r="H33" s="7"/>
       <c r="I33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="155">
+        <v>0.3</v>
+      </c>
       <c r="K33" s="9" t="s">
         <v>227</v>
       </c>
@@ -4885,13 +4896,15 @@
       <c r="E34" s="24">
         <v>3</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="126"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="148"/>
       <c r="H34" s="7"/>
       <c r="I34" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="J34" s="9"/>
+      <c r="J34" s="155">
+        <v>0.5</v>
+      </c>
       <c r="K34" s="9" t="s">
         <v>228</v>
       </c>
@@ -4927,8 +4940,8 @@
       <c r="E35" s="24">
         <v>3</v>
       </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="110"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="138"/>
       <c r="H35" s="10"/>
       <c r="I35" s="97" t="s">
         <v>229</v>
@@ -4971,13 +4984,15 @@
       <c r="E36" s="24">
         <v>3</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="114"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="107"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="9"/>
+      <c r="J36" s="155">
+        <v>0.5</v>
+      </c>
       <c r="K36" s="9" t="s">
         <v>228</v>
       </c>
@@ -5011,8 +5026,8 @@
         <v>53</v>
       </c>
       <c r="E37" s="47"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="124"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="146"/>
       <c r="H37" s="48"/>
       <c r="I37" s="49" t="s">
         <v>120</v>
@@ -5055,8 +5070,8 @@
       <c r="E38" s="24">
         <v>4</v>
       </c>
-      <c r="F38" s="111"/>
-      <c r="G38" s="114"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="107"/>
       <c r="H38" s="10"/>
       <c r="I38" s="3" t="s">
         <v>120</v>
@@ -5097,8 +5112,8 @@
       <c r="E39" s="25">
         <v>4</v>
       </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="114"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="107"/>
       <c r="H39" s="10"/>
       <c r="I39" s="3" t="s">
         <v>120</v>
@@ -5139,8 +5154,8 @@
       <c r="E40" s="25">
         <v>4</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="114"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="107"/>
       <c r="H40" s="66"/>
       <c r="I40" s="3" t="s">
         <v>120</v>
@@ -5181,8 +5196,8 @@
       <c r="E41" s="25">
         <v>4</v>
       </c>
-      <c r="F41" s="119"/>
-      <c r="G41" s="114"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="107"/>
       <c r="H41" s="10"/>
       <c r="I41" s="3" t="s">
         <v>120</v>
@@ -5223,8 +5238,8 @@
       <c r="E42" s="25">
         <v>4</v>
       </c>
-      <c r="F42" s="111"/>
-      <c r="G42" s="114"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="107"/>
       <c r="H42" s="10"/>
       <c r="I42" s="3" t="s">
         <v>120</v>
@@ -5265,8 +5280,8 @@
       <c r="E43" s="25">
         <v>4</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="116"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="143"/>
       <c r="H43" s="10"/>
       <c r="I43" s="3" t="s">
         <v>143</v>
@@ -5307,8 +5322,8 @@
       <c r="E44" s="25">
         <v>4</v>
       </c>
-      <c r="F44" s="109"/>
-      <c r="G44" s="110"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="138"/>
       <c r="H44" s="10"/>
       <c r="I44" s="3"/>
       <c r="J44" s="9"/>
@@ -5345,8 +5360,8 @@
       <c r="E45" s="25">
         <v>4</v>
       </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="114"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="107"/>
       <c r="H45" s="10"/>
       <c r="I45" s="3" t="s">
         <v>120</v>
@@ -5387,8 +5402,8 @@
       <c r="E46" s="25">
         <v>4</v>
       </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="116"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="143"/>
       <c r="H46" s="10"/>
       <c r="I46" s="3" t="s">
         <v>143</v>
@@ -5429,8 +5444,8 @@
       <c r="E47" s="25">
         <v>4</v>
       </c>
-      <c r="F47" s="109"/>
-      <c r="G47" s="116"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="143"/>
       <c r="H47" s="10"/>
       <c r="I47" s="3" t="s">
         <v>143</v>
@@ -5471,8 +5486,8 @@
       <c r="E48" s="101">
         <v>4</v>
       </c>
-      <c r="F48" s="117"/>
-      <c r="G48" s="118"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="150"/>
       <c r="H48" s="102"/>
       <c r="I48" s="103" t="s">
         <v>138</v>
@@ -5513,8 +5528,8 @@
       <c r="E49" s="24">
         <v>4</v>
       </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="114"/>
+      <c r="F49" s="131"/>
+      <c r="G49" s="107"/>
       <c r="H49" s="10"/>
       <c r="I49" s="3" t="s">
         <v>120</v>
@@ -5555,13 +5570,15 @@
       <c r="E50" s="24">
         <v>4</v>
       </c>
-      <c r="F50" s="111"/>
-      <c r="G50" s="114"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="107"/>
       <c r="H50" s="10"/>
       <c r="I50" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="9"/>
+      <c r="J50" s="155">
+        <v>0.5</v>
+      </c>
       <c r="K50" s="9" t="s">
         <v>149</v>
       </c>
@@ -5597,8 +5614,8 @@
       <c r="E51" s="24">
         <v>5</v>
       </c>
-      <c r="F51" s="109"/>
-      <c r="G51" s="116"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="143"/>
       <c r="H51" s="10"/>
       <c r="I51" s="9" t="s">
         <v>119</v>
@@ -5639,8 +5656,8 @@
       <c r="E52" s="24">
         <v>5</v>
       </c>
-      <c r="F52" s="109"/>
-      <c r="G52" s="116"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="143"/>
       <c r="H52" s="10"/>
       <c r="I52" s="9" t="s">
         <v>119</v>
@@ -5681,8 +5698,8 @@
       <c r="E53" s="24">
         <v>2</v>
       </c>
-      <c r="F53" s="111"/>
-      <c r="G53" s="114"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="107"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9" t="s">
         <v>119</v>
@@ -5723,8 +5740,8 @@
       <c r="E54" s="24">
         <v>2</v>
       </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="114"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="107"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9" t="s">
         <v>119</v>
@@ -5765,8 +5782,8 @@
       <c r="E55" s="42">
         <v>2</v>
       </c>
-      <c r="F55" s="111"/>
-      <c r="G55" s="114"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="107"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
         <v>119</v>
@@ -5807,8 +5824,8 @@
       <c r="E56" s="42">
         <v>2</v>
       </c>
-      <c r="F56" s="111"/>
-      <c r="G56" s="114"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="107"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9" t="s">
         <v>119</v>
@@ -5849,8 +5866,8 @@
       <c r="E57" s="42">
         <v>4</v>
       </c>
-      <c r="F57" s="111"/>
-      <c r="G57" s="114"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="107"/>
       <c r="H57" s="10"/>
       <c r="I57" s="9" t="s">
         <v>119</v>
@@ -5891,8 +5908,8 @@
       <c r="E58" s="42">
         <v>4</v>
       </c>
-      <c r="F58" s="111"/>
-      <c r="G58" s="114"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="107"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9" t="s">
         <v>119</v>
@@ -5933,8 +5950,8 @@
       <c r="E59" s="42">
         <v>4</v>
       </c>
-      <c r="F59" s="111"/>
-      <c r="G59" s="114"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="107"/>
       <c r="H59" s="10"/>
       <c r="I59" s="9" t="s">
         <v>119</v>
@@ -5975,8 +5992,8 @@
       <c r="E60" s="25">
         <v>4</v>
       </c>
-      <c r="F60" s="111"/>
-      <c r="G60" s="114"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="107"/>
       <c r="H60" s="10"/>
       <c r="I60" s="9" t="s">
         <v>119</v>
@@ -6017,8 +6034,8 @@
       <c r="E61" s="25">
         <v>4</v>
       </c>
-      <c r="F61" s="115"/>
-      <c r="G61" s="114"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="107"/>
       <c r="H61" s="10"/>
       <c r="I61" s="9" t="s">
         <v>119</v>
@@ -6049,8 +6066,8 @@
       <c r="C62" s="11"/>
       <c r="D62" s="26"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="106"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="151"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -6077,8 +6094,8 @@
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
       <c r="E63" s="16"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="106"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="151"/>
       <c r="H63" s="5"/>
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
@@ -6105,8 +6122,8 @@
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="16"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="106"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="151"/>
       <c r="H64" s="5"/>
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
@@ -6133,8 +6150,8 @@
       <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="E65" s="16"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="106"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="151"/>
       <c r="H65" s="5"/>
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
@@ -6161,8 +6178,8 @@
       <c r="C66" s="11"/>
       <c r="D66" s="15"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="106"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="151"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -6189,8 +6206,8 @@
       <c r="C67" s="11"/>
       <c r="D67" s="17"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="106"/>
+      <c r="F67" s="152"/>
+      <c r="G67" s="151"/>
       <c r="H67" s="17"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -6217,8 +6234,8 @@
       <c r="C68" s="11"/>
       <c r="D68" s="17"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="106"/>
+      <c r="F68" s="152"/>
+      <c r="G68" s="151"/>
       <c r="H68" s="17"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
@@ -6245,8 +6262,8 @@
       <c r="C69" s="16"/>
       <c r="D69" s="18"/>
       <c r="E69" s="16"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="106"/>
+      <c r="F69" s="152"/>
+      <c r="G69" s="151"/>
       <c r="H69" s="18"/>
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
@@ -6273,8 +6290,8 @@
       <c r="C70" s="16"/>
       <c r="D70" s="5"/>
       <c r="E70" s="16"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="106"/>
+      <c r="F70" s="131"/>
+      <c r="G70" s="151"/>
       <c r="H70" s="5"/>
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
@@ -6301,8 +6318,8 @@
       <c r="C71" s="16"/>
       <c r="D71" s="5"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="106"/>
+      <c r="F71" s="131"/>
+      <c r="G71" s="151"/>
       <c r="H71" s="5"/>
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
@@ -6329,8 +6346,8 @@
       <c r="C72" s="16"/>
       <c r="D72" s="5"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="106"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="151"/>
       <c r="H72" s="5"/>
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
@@ -6357,8 +6374,8 @@
       <c r="C73" s="16"/>
       <c r="D73" s="5"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="113"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="154"/>
       <c r="H73" s="5"/>
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
@@ -6385,8 +6402,8 @@
       <c r="C74" s="16"/>
       <c r="D74" s="5"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="106"/>
+      <c r="F74" s="131"/>
+      <c r="G74" s="151"/>
       <c r="H74" s="5"/>
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
@@ -6413,8 +6430,8 @@
       <c r="C75" s="11"/>
       <c r="D75" s="17"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="106"/>
+      <c r="F75" s="152"/>
+      <c r="G75" s="151"/>
       <c r="H75" s="17"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -6441,8 +6458,8 @@
       <c r="C76" s="11"/>
       <c r="D76" s="17"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="106"/>
+      <c r="F76" s="152"/>
+      <c r="G76" s="151"/>
       <c r="H76" s="17"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -6469,8 +6486,8 @@
       <c r="C77" s="11"/>
       <c r="D77" s="17"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="106"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="151"/>
       <c r="H77" s="17"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -6497,8 +6514,8 @@
       <c r="C78" s="11"/>
       <c r="D78" s="17"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="106"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="151"/>
       <c r="H78" s="17"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -6525,8 +6542,8 @@
       <c r="C79" s="11"/>
       <c r="D79" s="17"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="106"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="151"/>
       <c r="H79" s="17"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6553,8 +6570,8 @@
       <c r="C80" s="11"/>
       <c r="D80" s="17"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="106"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="151"/>
       <c r="H80" s="17"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -6581,8 +6598,8 @@
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="106"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="151"/>
       <c r="H81" s="5"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -6609,8 +6626,8 @@
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="106"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="151"/>
       <c r="H82" s="5"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -33065,83 +33082,6 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="F81:G81"/>
@@ -33158,6 +33098,83 @@
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
+++ b/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\KSA-final-project\03-요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044034F2-9663-4EB2-B246-AC8C693207DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF38E0-AF48-45C1-BE0A-CC0762E1FB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3582,7 +3582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>

--- a/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
+++ b/03-요구사항명세서/요구사항_명세서_v0.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\KSA-final-project\03-요구사항명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E6D54B-F4B5-41C3-9133-B7244AD5FEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF16335-BCDC-4D77-93E4-00F9F1A48B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2796,7 +2796,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2829,8 +2829,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -3021,7 +3033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3088,9 +3100,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3112,9 +3121,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3134,9 +3140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3211,19 +3214,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3303,91 +3294,89 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3404,79 +3393,135 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3698,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3717,157 +3762,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="91" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="114"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="12.75">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="120"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
     </row>
     <row r="3" spans="1:26" ht="12.75">
-      <c r="A3" s="140"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="122"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="101"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="39" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="91" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="37" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="154" t="s">
+      <c r="I4" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="114"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="93"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="145" t="s">
+      <c r="G5" s="109"/>
+      <c r="H5" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="J5" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="139" t="s">
+      <c r="L5" s="94" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="140"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
       <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="83">
         <v>1</v>
       </c>
-      <c r="F7" s="141" t="s">
+      <c r="F7" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="82" t="s">
+      <c r="G7" s="106"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82" t="s">
+      <c r="J7" s="75"/>
+      <c r="K7" s="75" t="s">
         <v>123</v>
       </c>
       <c r="L7" s="3"/>
@@ -3890,26 +3935,26 @@
       <c r="A8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="114"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="5"/>
       <c r="I8" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="93">
-        <v>0.5</v>
+      <c r="J8" s="86">
+        <v>0.75</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>133</v>
@@ -3934,28 +3979,28 @@
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="75">
         <v>1</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="105" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="82" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82" t="s">
+      <c r="J9" s="75"/>
+      <c r="K9" s="75" t="s">
         <v>124</v>
       </c>
       <c r="L9" s="3"/>
@@ -3978,26 +4023,26 @@
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="25" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="114"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="5"/>
       <c r="I10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="93">
-        <v>0.5</v>
+      <c r="J10" s="86">
+        <v>0.75</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>134</v>
@@ -4022,26 +4067,26 @@
       <c r="A11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="48" t="s">
         <v>169</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="114"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="5"/>
       <c r="I11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="93">
-        <v>0.5</v>
+      <c r="J11" s="86">
+        <v>0.75</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>134</v>
@@ -4066,26 +4111,26 @@
       <c r="A12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="47" t="s">
         <v>172</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="135"/>
-      <c r="G12" s="114"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="5"/>
       <c r="I12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="93">
-        <v>0.6</v>
+      <c r="J12" s="86">
+        <v>0.75</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>125</v>
@@ -4106,74 +4151,74 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
     </row>
-    <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A13" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="158" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="156">
         <v>2</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3" t="s">
+      <c r="F13" s="159"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="156" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="161">
         <v>0.5</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
     </row>
     <row r="14" spans="1:26" ht="12.75">
       <c r="A14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="31" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="47" t="s">
         <v>207</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="114"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="5"/>
       <c r="I14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J14" s="93">
-        <v>0.6</v>
+      <c r="J14" s="86">
+        <v>0.75</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>125</v>
@@ -4198,26 +4243,26 @@
       <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="67" t="s">
         <v>208</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="133"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="95" t="s">
+      <c r="I15" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="J15" s="93">
-        <v>0.5</v>
+      <c r="J15" s="86">
+        <v>0.75</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>241</v>
@@ -4242,26 +4287,26 @@
       <c r="A16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="53" t="s">
         <v>177</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="133"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="95" t="s">
+      <c r="I16" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="J16" s="93">
-        <v>0.25</v>
+      <c r="J16" s="86">
+        <v>0.75</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>221</v>
@@ -4286,25 +4331,25 @@
       <c r="A17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="49" t="s">
         <v>173</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="23">
         <v>1</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="114"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="94" t="s">
+      <c r="I17" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="86">
         <v>0.5</v>
       </c>
       <c r="K17" s="3" t="s">
@@ -4330,25 +4375,25 @@
       <c r="A18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="107"/>
-      <c r="G18" s="114"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="94" t="s">
+      <c r="I18" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="J18" s="93">
+      <c r="J18" s="86">
         <v>0.5</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -4374,25 +4419,25 @@
       <c r="A19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="54" t="s">
         <v>179</v>
       </c>
       <c r="E19" s="23">
         <v>2</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="114"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="94" t="s">
+      <c r="I19" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="J19" s="93">
+      <c r="J19" s="86">
         <v>0.5</v>
       </c>
       <c r="K19" s="3" t="s">
@@ -4414,72 +4459,72 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" s="73" customFormat="1" ht="12.75">
+    <row r="20" spans="1:26" s="66" customFormat="1" ht="12.75">
       <c r="A20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="73">
         <v>5</v>
       </c>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="88" t="s">
+      <c r="F20" s="119"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82" t="s">
+      <c r="J20" s="75"/>
+      <c r="K20" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
     </row>
     <row r="21" spans="1:26" ht="12.75">
       <c r="A21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="73">
         <v>5</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="88" t="s">
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82" t="s">
+      <c r="J21" s="75"/>
+      <c r="K21" s="75" t="s">
         <v>214</v>
       </c>
       <c r="L21" s="3"/>
@@ -4502,25 +4547,25 @@
       <c r="A22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="47" t="s">
         <v>171</v>
       </c>
       <c r="E22" s="23">
         <v>4</v>
       </c>
-      <c r="F22" s="134"/>
-      <c r="G22" s="114"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="94" t="s">
+      <c r="I22" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="J22" s="93">
+      <c r="J22" s="86">
         <v>0.2</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -4546,26 +4591,26 @@
       <c r="A23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="23">
         <v>2</v>
       </c>
-      <c r="F23" s="127"/>
-      <c r="G23" s="114"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="10"/>
       <c r="I23" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J23" s="93">
-        <v>0.5</v>
+      <c r="J23" s="86">
+        <v>0.75</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>136</v>
@@ -4590,25 +4635,25 @@
       <c r="A24" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="53" t="s">
         <v>182</v>
       </c>
       <c r="E24" s="23">
         <v>2</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="133"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="116"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="95" t="s">
+      <c r="I24" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="J24" s="93">
+      <c r="J24" s="86">
         <v>0.5</v>
       </c>
       <c r="K24" s="3" t="s">
@@ -4634,26 +4679,26 @@
       <c r="A25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="47" t="s">
         <v>183</v>
       </c>
       <c r="E25" s="23">
         <v>2</v>
       </c>
-      <c r="F25" s="119"/>
-      <c r="G25" s="114"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="93"/>
       <c r="H25" s="10"/>
       <c r="I25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="93">
-        <v>0.5</v>
+      <c r="J25" s="86">
+        <v>0.75</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>137</v>
@@ -4678,25 +4723,25 @@
       <c r="A26" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="23">
         <v>2</v>
       </c>
-      <c r="F26" s="111"/>
-      <c r="G26" s="114"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="93"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="93">
+      <c r="J26" s="86">
         <v>0.5</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -4722,26 +4767,26 @@
       <c r="A27" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="63" t="s">
+      <c r="C27" s="60" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="53" t="s">
         <v>205</v>
       </c>
       <c r="E27" s="23">
         <v>2</v>
       </c>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="124"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="J27" s="93">
-        <v>0.5</v>
+      <c r="J27" s="86">
+        <v>0.75</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>243</v>
@@ -4766,26 +4811,26 @@
       <c r="A28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="70" t="s">
+      <c r="D28" s="63" t="s">
         <v>206</v>
       </c>
       <c r="E28" s="23">
         <v>2</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="124"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="88" t="s">
         <v>220</v>
       </c>
-      <c r="J28" s="93">
-        <v>0.5</v>
+      <c r="J28" s="86">
+        <v>0.75</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>244</v>
@@ -4810,26 +4855,26 @@
       <c r="A29" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D29" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="80">
+      <c r="E29" s="73">
         <v>5</v>
       </c>
-      <c r="F29" s="136"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="88" t="s">
+      <c r="F29" s="114"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82" t="s">
+      <c r="J29" s="75"/>
+      <c r="K29" s="75" t="s">
         <v>214</v>
       </c>
       <c r="L29" s="3"/>
@@ -4852,25 +4897,25 @@
       <c r="A30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="47" t="s">
         <v>186</v>
       </c>
       <c r="E30" s="23">
         <v>3</v>
       </c>
-      <c r="F30" s="111"/>
-      <c r="G30" s="114"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="93"/>
       <c r="H30" s="10"/>
       <c r="I30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="93">
+      <c r="J30" s="86">
         <v>0.5</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -4896,25 +4941,25 @@
       <c r="A31" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23">
         <v>3</v>
       </c>
-      <c r="F31" s="111"/>
-      <c r="G31" s="120"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="98"/>
       <c r="H31" s="10"/>
       <c r="I31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="104">
+      <c r="J31" s="90">
         <v>0.5</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -4940,25 +4985,25 @@
       <c r="A32" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="25" t="s">
         <v>142</v>
       </c>
       <c r="E32" s="23">
         <v>3</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="39"/>
       <c r="I32" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="104">
+      <c r="J32" s="90">
         <v>0.5</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -4984,26 +5029,26 @@
       <c r="A33" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="23">
         <v>3</v>
       </c>
-      <c r="F33" s="119"/>
-      <c r="G33" s="122"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="7"/>
       <c r="I33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="104">
-        <v>0.3</v>
+      <c r="J33" s="90">
+        <v>0.5</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>226</v>
@@ -5028,25 +5073,25 @@
       <c r="A34" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="63" t="s">
         <v>210</v>
       </c>
       <c r="E34" s="23">
         <v>3</v>
       </c>
-      <c r="F34" s="125"/>
-      <c r="G34" s="126"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="134"/>
       <c r="H34" s="7"/>
-      <c r="I34" s="96" t="s">
+      <c r="I34" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J34" s="104">
+      <c r="J34" s="90">
         <v>0.5</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -5072,25 +5117,25 @@
       <c r="A35" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="62" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="23">
         <v>3</v>
       </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="110"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="124"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="96" t="s">
+      <c r="I35" s="89" t="s">
         <v>228</v>
       </c>
-      <c r="J35" s="104">
+      <c r="J35" s="90">
         <v>0.5</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -5118,25 +5163,25 @@
       <c r="A36" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="69" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="47" t="s">
         <v>187</v>
       </c>
       <c r="E36" s="23">
         <v>3</v>
       </c>
-      <c r="F36" s="115"/>
-      <c r="G36" s="114"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="93"/>
       <c r="H36" s="7"/>
       <c r="I36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="104">
+      <c r="J36" s="90">
         <v>0.5</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -5162,24 +5207,24 @@
       <c r="A37" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="48" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49" t="s">
+      <c r="J37" s="46"/>
+      <c r="K37" s="46" t="s">
         <v>143</v>
       </c>
       <c r="L37" s="9" t="s">
@@ -5200,514 +5245,514 @@
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
     </row>
-    <row r="38" spans="1:26" ht="22.5">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:26" s="66" customFormat="1" ht="22.5">
+      <c r="A38" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="73">
         <v>4</v>
       </c>
-      <c r="F38" s="111"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="155" t="s">
+      <c r="F38" s="114"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J38" s="104">
+      <c r="J38" s="141">
         <v>0.5</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="142" t="s">
         <v>230</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="1:26" ht="12.75">
-      <c r="A39" s="20" t="s">
+      <c r="L38" s="153"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="65"/>
+    </row>
+    <row r="39" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A39" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="143">
         <v>4</v>
       </c>
-      <c r="F39" s="115"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="155" t="s">
+      <c r="F39" s="144"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J39" s="104">
+      <c r="J39" s="141">
         <v>0.5</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" ht="12.75">
-      <c r="A40" s="20" t="s">
+      <c r="L39" s="153"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="65"/>
+      <c r="X39" s="65"/>
+      <c r="Y39" s="65"/>
+      <c r="Z39" s="65"/>
+    </row>
+    <row r="40" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A40" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="145" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="143">
         <v>4</v>
       </c>
-      <c r="F40" s="115"/>
-      <c r="G40" s="114"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="155" t="s">
+      <c r="F40" s="144"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J40" s="104">
+      <c r="J40" s="141">
         <v>0.5</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="1:26" ht="12.75">
-      <c r="A41" s="20" t="s">
+      <c r="L40" s="153"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="65"/>
+      <c r="P40" s="65"/>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="65"/>
+    </row>
+    <row r="41" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A41" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="143">
         <v>4</v>
       </c>
-      <c r="F41" s="119"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="155" t="s">
+      <c r="F41" s="147"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J41" s="104">
+      <c r="J41" s="141">
         <v>0.3</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="142" t="s">
         <v>233</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="1:26" ht="12.75">
-      <c r="A42" s="20" t="s">
+      <c r="L41" s="153"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+    </row>
+    <row r="42" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A42" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="143">
         <v>4</v>
       </c>
-      <c r="F42" s="111"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="155" t="s">
+      <c r="F42" s="114"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J42" s="104">
+      <c r="J42" s="141">
         <v>0.3</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="142" t="s">
         <v>234</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="1:26" ht="12.75">
-      <c r="A43" s="20" t="s">
+      <c r="L42" s="153"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+    </row>
+    <row r="43" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A43" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="143">
         <v>4</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="155" t="s">
+      <c r="F43" s="148"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J43" s="104">
+      <c r="J43" s="141">
         <v>0.3</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="153" t="s">
         <v>166</v>
       </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
-    </row>
-    <row r="44" spans="1:26" ht="21">
-      <c r="A44" s="20" t="s">
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+    </row>
+    <row r="44" spans="1:26" s="66" customFormat="1" ht="21">
+      <c r="A44" s="152" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="149" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="69" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="150" t="s">
         <v>195</v>
       </c>
-      <c r="E44" s="24">
+      <c r="E44" s="143">
         <v>4</v>
       </c>
-      <c r="F44" s="109"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="155" t="s">
+      <c r="F44" s="148"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J44" s="104">
+      <c r="J44" s="141">
         <v>0.3</v>
       </c>
-      <c r="K44" s="9" t="s">
+      <c r="K44" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="L44" s="9"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-    </row>
-    <row r="45" spans="1:26" ht="12.75">
-      <c r="A45" s="20" t="s">
+      <c r="L44" s="153"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="65"/>
+      <c r="Y44" s="65"/>
+      <c r="Z44" s="65"/>
+    </row>
+    <row r="45" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A45" s="152" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="143">
         <v>4</v>
       </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="114"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="155" t="s">
+      <c r="F45" s="114"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J45" s="104">
+      <c r="J45" s="141">
         <v>0.3</v>
       </c>
-      <c r="K45" s="9" t="s">
+      <c r="K45" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46" spans="1:26" ht="12.75">
-      <c r="A46" s="20" t="s">
+      <c r="L45" s="153"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+    </row>
+    <row r="46" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A46" s="152" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="24">
+      <c r="E46" s="143">
         <v>4</v>
       </c>
-      <c r="F46" s="109"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="155" t="s">
+      <c r="F46" s="148"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J46" s="104">
+      <c r="J46" s="141">
         <v>0.3</v>
       </c>
-      <c r="K46" s="9" t="s">
+      <c r="K46" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
-    </row>
-    <row r="47" spans="1:26" ht="12.75">
-      <c r="A47" s="20" t="s">
+      <c r="L46" s="153"/>
+      <c r="M46" s="65"/>
+      <c r="N46" s="65"/>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65"/>
+      <c r="Q46" s="65"/>
+      <c r="R46" s="65"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="65"/>
+      <c r="X46" s="65"/>
+      <c r="Y46" s="65"/>
+      <c r="Z46" s="65"/>
+    </row>
+    <row r="47" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A47" s="152" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="143">
         <v>4</v>
       </c>
-      <c r="F47" s="109"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="155" t="s">
+      <c r="F47" s="148"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="J47" s="104">
+      <c r="J47" s="141">
         <v>0.3</v>
       </c>
-      <c r="K47" s="9" t="s">
+      <c r="K47" s="142" t="s">
         <v>238</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48" spans="1:26" ht="12.75">
-      <c r="A48" s="20" t="s">
+      <c r="L47" s="153"/>
+      <c r="M47" s="65"/>
+      <c r="N47" s="65"/>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65"/>
+      <c r="Q47" s="65"/>
+      <c r="R47" s="65"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="65"/>
+      <c r="X47" s="65"/>
+      <c r="Y47" s="65"/>
+      <c r="Z47" s="65"/>
+    </row>
+    <row r="48" spans="1:26" s="66" customFormat="1" ht="12.75">
+      <c r="A48" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="99" t="s">
+      <c r="D48" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="100">
+      <c r="E48" s="73">
         <v>4</v>
       </c>
-      <c r="F48" s="117"/>
-      <c r="G48" s="118"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102" t="s">
+      <c r="F48" s="114"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103" t="s">
+      <c r="J48" s="142"/>
+      <c r="K48" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
+      <c r="L48" s="153"/>
+      <c r="M48" s="65"/>
+      <c r="N48" s="65"/>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65"/>
+      <c r="Q48" s="65"/>
+      <c r="R48" s="65"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="65"/>
+      <c r="X48" s="65"/>
+      <c r="Y48" s="65"/>
+      <c r="Z48" s="65"/>
     </row>
     <row r="49" spans="1:26" ht="12.75">
       <c r="A49" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="73">
         <v>4</v>
       </c>
-      <c r="F49" s="111"/>
-      <c r="G49" s="114"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="155" t="s">
+      <c r="F49" s="114"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="140" t="s">
         <v>246</v>
       </c>
-      <c r="J49" s="156">
+      <c r="J49" s="162">
         <v>0.3</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="163" t="s">
         <v>239</v>
       </c>
       <c r="L49" s="9"/>
@@ -5730,28 +5775,28 @@
       <c r="A50" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="73">
         <v>4</v>
       </c>
-      <c r="F50" s="111"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="9" t="s">
+      <c r="F50" s="114"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J50" s="104">
+      <c r="J50" s="141">
         <v>0.5</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="142" t="s">
         <v>148</v>
       </c>
       <c r="L50" s="9"/>
@@ -5774,26 +5819,26 @@
       <c r="A51" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="73">
         <v>5</v>
       </c>
-      <c r="F51" s="109"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="9" t="s">
+      <c r="F51" s="148"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9" t="s">
+      <c r="J51" s="142"/>
+      <c r="K51" s="142" t="s">
         <v>149</v>
       </c>
       <c r="L51" s="9"/>
@@ -5816,26 +5861,26 @@
       <c r="A52" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="73">
         <v>5</v>
       </c>
-      <c r="F52" s="109"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="9" t="s">
+      <c r="F52" s="148"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9" t="s">
+      <c r="J52" s="142"/>
+      <c r="K52" s="142" t="s">
         <v>150</v>
       </c>
       <c r="L52" s="9"/>
@@ -5858,25 +5903,27 @@
       <c r="A53" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E53" s="23">
         <v>2</v>
       </c>
-      <c r="F53" s="111"/>
-      <c r="G53" s="114"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="93"/>
       <c r="H53" s="10"/>
       <c r="I53" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J53" s="9"/>
+      <c r="J53" s="90">
+        <v>1</v>
+      </c>
       <c r="K53" s="9" t="s">
         <v>151</v>
       </c>
@@ -5900,25 +5947,27 @@
       <c r="A54" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E54" s="23">
         <v>2</v>
       </c>
-      <c r="F54" s="111"/>
-      <c r="G54" s="114"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="93"/>
       <c r="H54" s="10"/>
       <c r="I54" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J54" s="9"/>
+      <c r="J54" s="90">
+        <v>1</v>
+      </c>
       <c r="K54" s="9" t="s">
         <v>152</v>
       </c>
@@ -5942,25 +5991,27 @@
       <c r="A55" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="38">
         <v>2</v>
       </c>
-      <c r="F55" s="111"/>
-      <c r="G55" s="114"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="93"/>
       <c r="H55" s="10"/>
       <c r="I55" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J55" s="11"/>
+      <c r="J55" s="90">
+        <v>1</v>
+      </c>
       <c r="K55" s="11" t="s">
         <v>153</v>
       </c>
@@ -5984,25 +6035,27 @@
       <c r="A56" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="38">
         <v>2</v>
       </c>
-      <c r="F56" s="111"/>
-      <c r="G56" s="114"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="93"/>
       <c r="H56" s="10"/>
       <c r="I56" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J56" s="11"/>
+      <c r="J56" s="90">
+        <v>1</v>
+      </c>
       <c r="K56" s="11" t="s">
         <v>154</v>
       </c>
@@ -6026,26 +6079,26 @@
       <c r="A57" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="C57" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="166">
         <v>4</v>
       </c>
-      <c r="F57" s="111"/>
-      <c r="G57" s="114"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="9" t="s">
+      <c r="F57" s="114"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11" t="s">
+      <c r="J57" s="167"/>
+      <c r="K57" s="167" t="s">
         <v>155</v>
       </c>
       <c r="L57" s="11"/>
@@ -6068,26 +6121,26 @@
       <c r="A58" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="166">
         <v>4</v>
       </c>
-      <c r="F58" s="111"/>
-      <c r="G58" s="114"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="9" t="s">
+      <c r="F58" s="114"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="74"/>
+      <c r="I58" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11" t="s">
+      <c r="J58" s="167"/>
+      <c r="K58" s="167" t="s">
         <v>156</v>
       </c>
       <c r="L58" s="11"/>
@@ -6110,26 +6163,26 @@
       <c r="A59" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C59" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E59" s="166">
         <v>4</v>
       </c>
-      <c r="F59" s="111"/>
-      <c r="G59" s="114"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="9" t="s">
+      <c r="F59" s="114"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11" t="s">
+      <c r="J59" s="167"/>
+      <c r="K59" s="167" t="s">
         <v>157</v>
       </c>
       <c r="L59" s="11"/>
@@ -6152,26 +6205,26 @@
       <c r="A60" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="143">
         <v>4</v>
       </c>
-      <c r="F60" s="111"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="9" t="s">
+      <c r="F60" s="114"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11" t="s">
+      <c r="J60" s="167"/>
+      <c r="K60" s="167" t="s">
         <v>158</v>
       </c>
       <c r="L60" s="11"/>
@@ -6194,26 +6247,26 @@
       <c r="A61" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="143">
         <v>4</v>
       </c>
-      <c r="F61" s="115"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="9" t="s">
+      <c r="F61" s="144"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11" t="s">
+      <c r="J61" s="167"/>
+      <c r="K61" s="167" t="s">
         <v>159</v>
       </c>
       <c r="L61" s="11"/>
@@ -6234,12 +6287,12 @@
     </row>
     <row r="62" spans="1:26" ht="12.75">
       <c r="A62" s="9"/>
-      <c r="B62" s="36"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="25"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="106"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="135"/>
       <c r="H62" s="10"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
@@ -6266,8 +6319,8 @@
       <c r="C63" s="11"/>
       <c r="D63" s="10"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="106"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="135"/>
       <c r="H63" s="5"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
@@ -6294,8 +6347,8 @@
       <c r="C64" s="11"/>
       <c r="D64" s="10"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="106"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="135"/>
       <c r="H64" s="5"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
@@ -6322,8 +6375,8 @@
       <c r="C65" s="15"/>
       <c r="D65" s="5"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="106"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="135"/>
       <c r="H65" s="5"/>
       <c r="I65" s="15"/>
       <c r="J65" s="15"/>
@@ -6350,8 +6403,8 @@
       <c r="C66" s="11"/>
       <c r="D66" s="14"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="111"/>
-      <c r="G66" s="106"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="135"/>
       <c r="H66" s="10"/>
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
@@ -6378,8 +6431,8 @@
       <c r="C67" s="11"/>
       <c r="D67" s="16"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="106"/>
+      <c r="F67" s="136"/>
+      <c r="G67" s="135"/>
       <c r="H67" s="16"/>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
@@ -6406,8 +6459,8 @@
       <c r="C68" s="11"/>
       <c r="D68" s="16"/>
       <c r="E68" s="11"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="106"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="135"/>
       <c r="H68" s="16"/>
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
@@ -6434,8 +6487,8 @@
       <c r="C69" s="15"/>
       <c r="D69" s="17"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="106"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="135"/>
       <c r="H69" s="17"/>
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
@@ -6462,8 +6515,8 @@
       <c r="C70" s="15"/>
       <c r="D70" s="5"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="111"/>
-      <c r="G70" s="106"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="135"/>
       <c r="H70" s="5"/>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -6490,8 +6543,8 @@
       <c r="C71" s="15"/>
       <c r="D71" s="5"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="106"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="135"/>
       <c r="H71" s="5"/>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -6518,8 +6571,8 @@
       <c r="C72" s="15"/>
       <c r="D72" s="5"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="111"/>
-      <c r="G72" s="106"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="135"/>
       <c r="H72" s="5"/>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
@@ -6546,8 +6599,8 @@
       <c r="C73" s="15"/>
       <c r="D73" s="5"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="112"/>
-      <c r="G73" s="113"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="138"/>
       <c r="H73" s="5"/>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -6574,8 +6627,8 @@
       <c r="C74" s="15"/>
       <c r="D74" s="5"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="106"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="135"/>
       <c r="H74" s="5"/>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -6602,8 +6655,8 @@
       <c r="C75" s="11"/>
       <c r="D75" s="16"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="106"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="135"/>
       <c r="H75" s="16"/>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
@@ -6630,8 +6683,8 @@
       <c r="C76" s="11"/>
       <c r="D76" s="16"/>
       <c r="E76" s="11"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="106"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="135"/>
       <c r="H76" s="16"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -6658,8 +6711,8 @@
       <c r="C77" s="11"/>
       <c r="D77" s="16"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="106"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="135"/>
       <c r="H77" s="16"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
@@ -6686,8 +6739,8 @@
       <c r="C78" s="11"/>
       <c r="D78" s="16"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="106"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="135"/>
       <c r="H78" s="16"/>
       <c r="I78" s="11"/>
       <c r="J78" s="11"/>
@@ -6714,8 +6767,8 @@
       <c r="C79" s="11"/>
       <c r="D79" s="16"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="106"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="135"/>
       <c r="H79" s="16"/>
       <c r="I79" s="11"/>
       <c r="J79" s="11"/>
@@ -6742,8 +6795,8 @@
       <c r="C80" s="11"/>
       <c r="D80" s="16"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="106"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="135"/>
       <c r="H80" s="16"/>
       <c r="I80" s="11"/>
       <c r="J80" s="11"/>
@@ -6770,8 +6823,8 @@
       <c r="C81" s="3"/>
       <c r="D81" s="4"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="106"/>
+      <c r="F81" s="113"/>
+      <c r="G81" s="135"/>
       <c r="H81" s="5"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -6798,8 +6851,8 @@
       <c r="C82" s="3"/>
       <c r="D82" s="4"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="106"/>
+      <c r="F82" s="107"/>
+      <c r="G82" s="135"/>
       <c r="H82" s="5"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -33254,83 +33307,6 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="F80:G80"/>
     <mergeCell ref="F81:G81"/>
@@ -33347,6 +33323,83 @@
     <mergeCell ref="F71:G71"/>
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:L4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
